--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_12_21.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_12_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-326503.0751606544</v>
+        <v>-327181.2564681875</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>311885.1970183197</v>
+        <v>311885.1970183201</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058543</v>
+        <v>632041.4518058549</v>
       </c>
     </row>
     <row r="9">
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>122.7111663740569</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>46.38701225037784</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>23.93825431390931</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>28.20762267428242</v>
+        <v>28.20762267428239</v>
       </c>
       <c r="U11" t="n">
-        <v>55.9381183540775</v>
+        <v>55.93811835407747</v>
       </c>
       <c r="V11" t="n">
-        <v>122.7111663740569</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>122.7111663740569</v>
+        <v>100.2624084375879</v>
       </c>
     </row>
     <row r="12">
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>60.4723956750699</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>122.7111663740569</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.141010788491247</v>
+        <v>6.141010788491254</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>60.47239567506928</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>20.73635203332428</v>
+        <v>20.73635203332426</v>
       </c>
       <c r="U12" t="n">
-        <v>43.01612417394765</v>
+        <v>43.01612417394762</v>
       </c>
       <c r="V12" t="n">
-        <v>46.43735102801259</v>
+        <v>46.43735102801256</v>
       </c>
       <c r="W12" t="n">
-        <v>72.49301368962193</v>
+        <v>72.4930136896219</v>
       </c>
       <c r="X12" t="n">
-        <v>23.10134455208095</v>
+        <v>23.10134455208092</v>
       </c>
       <c r="Y12" t="n">
-        <v>29.17271624663596</v>
+        <v>29.17271624663593</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.003274493278811</v>
+        <v>9.003274493278784</v>
       </c>
       <c r="S13" t="n">
-        <v>41.14309824393261</v>
+        <v>41.14309824393258</v>
       </c>
       <c r="T13" t="n">
-        <v>29.52954681521118</v>
+        <v>29.52954681521115</v>
       </c>
       <c r="U13" t="n">
-        <v>94.44472612269439</v>
+        <v>94.44472612269436</v>
       </c>
       <c r="V13" t="n">
-        <v>50.89744529706024</v>
+        <v>50.89744529706022</v>
       </c>
       <c r="W13" t="n">
-        <v>96.09913720194567</v>
+        <v>96.09913720194564</v>
       </c>
       <c r="X13" t="n">
-        <v>27.70788552085287</v>
+        <v>27.70788552085284</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.92970292677876</v>
+        <v>22.92970292677873</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>113.5870392834476</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>79.87637266798654</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>122.7111663740569</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>33.06238140451856</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>28.20762267428245</v>
+        <v>28.20762267428242</v>
       </c>
       <c r="U14" t="n">
-        <v>55.93811835407755</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>122.7111663740569</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>122.7111663740569</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>107.1669324054735</v>
       </c>
       <c r="J15" t="n">
         <v>51.93601990319847</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.141010788491254</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>66.61340646356092</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>20.73635203332431</v>
+        <v>20.73635203332428</v>
       </c>
       <c r="U15" t="n">
-        <v>43.01612417394768</v>
+        <v>43.01612417394765</v>
       </c>
       <c r="V15" t="n">
-        <v>46.43735102801261</v>
+        <v>122.4539806716648</v>
       </c>
       <c r="W15" t="n">
-        <v>72.49301368962196</v>
+        <v>72.49301368962193</v>
       </c>
       <c r="X15" t="n">
-        <v>23.10134455208097</v>
+        <v>23.10134455208095</v>
       </c>
       <c r="Y15" t="n">
-        <v>29.17271624663599</v>
+        <v>29.17271624663596</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.003274493278839</v>
+        <v>9.003274493278813</v>
       </c>
       <c r="S16" t="n">
-        <v>41.14309824393263</v>
+        <v>41.14309824393261</v>
       </c>
       <c r="T16" t="n">
-        <v>29.52954681521121</v>
+        <v>29.52954681521118</v>
       </c>
       <c r="U16" t="n">
-        <v>94.44472612269442</v>
+        <v>94.44472612269439</v>
       </c>
       <c r="V16" t="n">
-        <v>50.89744529706027</v>
+        <v>50.89744529706024</v>
       </c>
       <c r="W16" t="n">
-        <v>96.09913720194569</v>
+        <v>96.09913720194567</v>
       </c>
       <c r="X16" t="n">
-        <v>27.7078855208529</v>
+        <v>27.70788552085287</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.92970292677879</v>
+        <v>22.92970292677876</v>
       </c>
     </row>
     <row r="17">
@@ -1920,16 +1920,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="D18" t="n">
-        <v>122.7111663740569</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1965,22 +1965,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.141010788491254</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>56.14797543907076</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>122.7111663740569</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>50.00696465057928</v>
       </c>
       <c r="V18" t="n">
-        <v>122.7111663740569</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>53.44089762924062</v>
+        <v>53.44089762923974</v>
       </c>
       <c r="C20" t="n">
-        <v>29.55915463258611</v>
+        <v>29.55915463258606</v>
       </c>
       <c r="D20" t="n">
-        <v>17.12581689363458</v>
+        <v>17.12581689363452</v>
       </c>
       <c r="E20" t="n">
-        <v>50.83256931304345</v>
+        <v>50.83256931304339</v>
       </c>
       <c r="F20" t="n">
-        <v>82.55290689142078</v>
+        <v>82.55290689142072</v>
       </c>
       <c r="G20" t="n">
-        <v>98.18116457427351</v>
+        <v>98.18116457427345</v>
       </c>
       <c r="H20" t="n">
-        <v>26.26582637653701</v>
+        <v>26.26582637653695</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0.2334408605593126</v>
+        <v>0.2334408605592557</v>
       </c>
       <c r="W20" t="n">
-        <v>17.25012107717419</v>
+        <v>17.25012107717413</v>
       </c>
       <c r="X20" t="n">
-        <v>39.13637154611342</v>
+        <v>39.13637154611337</v>
       </c>
       <c r="Y20" t="n">
-        <v>61.63922466985719</v>
+        <v>61.63922466985713</v>
       </c>
     </row>
     <row r="21">
@@ -2166,22 +2166,22 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>122.7111663740569</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>122.7111663740569</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>65.55119861916238</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>107.1669324054735</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>51.93601990319847</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,13 +2202,13 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.141010788491254</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="S21" t="n">
-        <v>122.7111663740569</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>108.0839953422692</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>53.44089762924062</v>
+        <v>53.44089762924057</v>
       </c>
       <c r="C23" t="n">
-        <v>29.55915463258611</v>
+        <v>29.55915463258606</v>
       </c>
       <c r="D23" t="n">
-        <v>17.12581689363458</v>
+        <v>17.12581689363452</v>
       </c>
       <c r="E23" t="n">
-        <v>50.83256931304345</v>
+        <v>50.83256931304339</v>
       </c>
       <c r="F23" t="n">
-        <v>82.55290689142078</v>
+        <v>82.55290689142072</v>
       </c>
       <c r="G23" t="n">
-        <v>98.18116457427351</v>
+        <v>98.18116457427345</v>
       </c>
       <c r="H23" t="n">
-        <v>26.26582637653701</v>
+        <v>26.26582637653697</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0.2334408605593126</v>
+        <v>0.2334408605592557</v>
       </c>
       <c r="W23" t="n">
-        <v>17.25012107717419</v>
+        <v>17.25012107717413</v>
       </c>
       <c r="X23" t="n">
-        <v>39.13637154611342</v>
+        <v>39.13637154611337</v>
       </c>
       <c r="Y23" t="n">
-        <v>61.63922466985719</v>
+        <v>61.63922466985713</v>
       </c>
     </row>
     <row r="24">
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>122.7111663740569</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2409,16 +2409,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>56.14797543907054</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>51.93601990319847</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2451,16 +2451,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="V24" t="n">
-        <v>122.7111663740569</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>122.7111663740569</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>108.0839953422692</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2561,10 +2561,10 @@
         <v>124.8515755759447</v>
       </c>
       <c r="E26" t="n">
-        <v>158.5583279953536</v>
+        <v>158.5583279953535</v>
       </c>
       <c r="F26" t="n">
-        <v>190.2786655737309</v>
+        <v>190.2786655737308</v>
       </c>
       <c r="G26" t="n">
         <v>205.9069232565836</v>
@@ -2573,7 +2573,7 @@
         <v>133.9915850588471</v>
       </c>
       <c r="I26" t="n">
-        <v>27.67799807148493</v>
+        <v>27.67799807148489</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.35336722562559</v>
+        <v>14.35336722562556</v>
       </c>
       <c r="T26" t="n">
-        <v>9.498608495389474</v>
+        <v>9.498608495389448</v>
       </c>
       <c r="U26" t="n">
-        <v>37.22910417518456</v>
+        <v>37.22910417518455</v>
       </c>
       <c r="V26" t="n">
         <v>107.9591995428694</v>
@@ -2631,16 +2631,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>5.191951368295896</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2649,13 +2649,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>43.16270726217383</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>51.93601990319847</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.141010788491254</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.027337854431339</v>
+        <v>2.027337854431311</v>
       </c>
       <c r="U27" t="n">
-        <v>24.30710999505471</v>
+        <v>24.30710999505468</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>27.72833684911961</v>
       </c>
       <c r="W27" t="n">
-        <v>53.78399951072899</v>
+        <v>53.78399951072896</v>
       </c>
       <c r="X27" t="n">
-        <v>4.392330373188003</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.46370206774301</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.43408406503966</v>
+        <v>22.43408406503963</v>
       </c>
       <c r="T28" t="n">
-        <v>10.82053263631824</v>
+        <v>10.82053263631821</v>
       </c>
       <c r="U28" t="n">
-        <v>75.73571194380145</v>
+        <v>75.73571194380142</v>
       </c>
       <c r="V28" t="n">
-        <v>32.1884311181673</v>
+        <v>32.18843111816727</v>
       </c>
       <c r="W28" t="n">
-        <v>77.39012302305272</v>
+        <v>77.39012302305269</v>
       </c>
       <c r="X28" t="n">
-        <v>8.998871341959926</v>
+        <v>8.998871341959898</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.220688747885816</v>
+        <v>4.220688747885788</v>
       </c>
     </row>
     <row r="29">
@@ -2843,7 +2843,7 @@
         <v>14.35336722562556</v>
       </c>
       <c r="T29" t="n">
-        <v>9.498608495389446</v>
+        <v>9.498608495389448</v>
       </c>
       <c r="U29" t="n">
         <v>37.22910417518455</v>
@@ -2868,16 +2868,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>125.5754129795009</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2913,22 +2913,22 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.141010788491254</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.3654897447971</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T30" t="n">
         <v>2.027337854431311</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2276940613373</v>
+        <v>24.30710999505468</v>
       </c>
       <c r="V30" t="n">
-        <v>118.1250671262678</v>
+        <v>27.72833684911961</v>
       </c>
       <c r="W30" t="n">
         <v>53.78399951072896</v>
@@ -3035,10 +3035,10 @@
         <v>124.8515755759447</v>
       </c>
       <c r="E32" t="n">
-        <v>158.5583279953536</v>
+        <v>158.5583279953535</v>
       </c>
       <c r="F32" t="n">
-        <v>190.2786655737309</v>
+        <v>190.2786655737308</v>
       </c>
       <c r="G32" t="n">
         <v>205.9069232565836</v>
@@ -3047,7 +3047,7 @@
         <v>133.9915850588471</v>
       </c>
       <c r="I32" t="n">
-        <v>27.67799807148492</v>
+        <v>27.67799807148489</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.35336722562559</v>
+        <v>14.35336722562556</v>
       </c>
       <c r="T32" t="n">
-        <v>9.498608495389476</v>
+        <v>9.498608495389448</v>
       </c>
       <c r="U32" t="n">
-        <v>37.22910417518457</v>
+        <v>37.22910417518455</v>
       </c>
       <c r="V32" t="n">
         <v>107.9591995428694</v>
@@ -3111,13 +3111,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.96953259395561</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3150,31 +3150,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.3654897447971</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.027337854431339</v>
+        <v>2.02733785443131</v>
       </c>
       <c r="U33" t="n">
-        <v>24.30710999505471</v>
+        <v>24.30710999505468</v>
       </c>
       <c r="V33" t="n">
-        <v>27.72833684911964</v>
+        <v>27.72833684911961</v>
       </c>
       <c r="W33" t="n">
-        <v>53.78399951072899</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>4.392330373188003</v>
+        <v>4.392330373187974</v>
       </c>
       <c r="Y33" t="n">
-        <v>154.957577291245</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.43408406503966</v>
+        <v>22.43408406503963</v>
       </c>
       <c r="T34" t="n">
-        <v>10.82053263631824</v>
+        <v>10.82053263631821</v>
       </c>
       <c r="U34" t="n">
-        <v>75.73571194380145</v>
+        <v>75.73571194380142</v>
       </c>
       <c r="V34" t="n">
-        <v>32.1884311181673</v>
+        <v>32.18843111816727</v>
       </c>
       <c r="W34" t="n">
-        <v>77.39012302305272</v>
+        <v>77.39012302305269</v>
       </c>
       <c r="X34" t="n">
-        <v>8.998871341959926</v>
+        <v>8.998871341959898</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.220688747885816</v>
+        <v>4.220688747885788</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>125.7760295888891</v>
+        <v>125.7760295888892</v>
       </c>
       <c r="C35" t="n">
-        <v>101.8942865922346</v>
+        <v>101.8942865922347</v>
       </c>
       <c r="D35" t="n">
-        <v>89.46094885328307</v>
+        <v>89.46094885328313</v>
       </c>
       <c r="E35" t="n">
-        <v>123.1677012726919</v>
+        <v>123.167701272692</v>
       </c>
       <c r="F35" t="n">
         <v>154.8880388510693</v>
       </c>
       <c r="G35" t="n">
-        <v>170.516296533922</v>
+        <v>170.5162965339221</v>
       </c>
       <c r="H35" t="n">
-        <v>98.6009583361855</v>
+        <v>98.60095833618556</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,16 +3320,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.838477452522952</v>
+        <v>1.838477452523023</v>
       </c>
       <c r="V35" t="n">
-        <v>72.56857282020781</v>
+        <v>72.56857282020786</v>
       </c>
       <c r="W35" t="n">
-        <v>89.58525303682268</v>
+        <v>89.58525303682273</v>
       </c>
       <c r="X35" t="n">
-        <v>111.4715035057619</v>
+        <v>111.471503505762</v>
       </c>
       <c r="Y35" t="n">
         <v>133.9743566295057</v>
@@ -3351,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>32.35359897819007</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3396,13 +3396,13 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>266.7045835770116</v>
@@ -3411,7 +3411,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>58.05459797287833</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>40.34508522113983</v>
+        <v>40.34508522113989</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>41.99949630039112</v>
+        <v>41.99949630039117</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>125.7760295888891</v>
+        <v>125.7760295888892</v>
       </c>
       <c r="C38" t="n">
-        <v>101.8942865922346</v>
+        <v>101.8942865922347</v>
       </c>
       <c r="D38" t="n">
-        <v>89.46094885328307</v>
+        <v>89.46094885328313</v>
       </c>
       <c r="E38" t="n">
-        <v>123.1677012726919</v>
+        <v>123.167701272692</v>
       </c>
       <c r="F38" t="n">
         <v>154.8880388510693</v>
       </c>
       <c r="G38" t="n">
-        <v>170.516296533922</v>
+        <v>170.5162965339221</v>
       </c>
       <c r="H38" t="n">
-        <v>98.6009583361855</v>
+        <v>98.60095833618556</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,16 +3557,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.838477452522952</v>
+        <v>1.838477452523023</v>
       </c>
       <c r="V38" t="n">
-        <v>72.56857282020781</v>
+        <v>72.56857282020786</v>
       </c>
       <c r="W38" t="n">
-        <v>89.58525303682268</v>
+        <v>89.58525303682273</v>
       </c>
       <c r="X38" t="n">
-        <v>111.4715035057619</v>
+        <v>111.471503505762</v>
       </c>
       <c r="Y38" t="n">
         <v>133.9743566295057</v>
@@ -3582,13 +3582,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>79.41299667467133</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3642,10 +3642,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>18.39337278806738</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>184.2424720716032</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>40.34508522113983</v>
+        <v>40.34508522113989</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>41.99949630039112</v>
+        <v>41.99949630039117</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.551106103699681</v>
+        <v>9.551106103699667</v>
       </c>
       <c r="V41" t="n">
         <v>80.28120147138452</v>
@@ -3825,22 +3825,22 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>147.684215096967</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>125.6804106468432</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>51.93601990319846</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3870,19 +3870,19 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>214.947921920714</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0.05033877763474948</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
         <v>26.1060014392441</v>
       </c>
       <c r="X42" t="n">
-        <v>185.2647448127536</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -4065,13 +4065,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>125.6804106468432</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.141010788491219</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4110,16 +4110,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>135.0593879860685</v>
       </c>
       <c r="V45" t="n">
         <v>0.05033877763474948</v>
       </c>
       <c r="W45" t="n">
-        <v>157.4490394390151</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>133.7675664150325</v>
+        <v>304.5738074498144</v>
       </c>
       <c r="C11" t="n">
-        <v>133.7675664150325</v>
+        <v>180.6231343447067</v>
       </c>
       <c r="D11" t="n">
-        <v>133.7675664150325</v>
+        <v>180.6231343447067</v>
       </c>
       <c r="E11" t="n">
-        <v>133.7675664150325</v>
+        <v>180.6231343447067</v>
       </c>
       <c r="F11" t="n">
-        <v>133.7675664150325</v>
+        <v>180.6231343447067</v>
       </c>
       <c r="G11" t="n">
-        <v>133.7675664150325</v>
+        <v>180.6231343447067</v>
       </c>
       <c r="H11" t="n">
-        <v>9.816893309924549</v>
+        <v>56.67246123959902</v>
       </c>
       <c r="I11" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="J11" t="n">
-        <v>126.9687252395235</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="K11" t="n">
-        <v>126.9687252395235</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="L11" t="n">
-        <v>190.3219518367874</v>
+        <v>58.20402256113616</v>
       </c>
       <c r="M11" t="n">
-        <v>273.0379160149505</v>
+        <v>140.9199867392993</v>
       </c>
       <c r="N11" t="n">
-        <v>350.2498749534</v>
+        <v>262.4040414496153</v>
       </c>
       <c r="O11" t="n">
-        <v>386.2495795577951</v>
+        <v>298.4037460540104</v>
       </c>
       <c r="P11" t="n">
-        <v>386.2495795577951</v>
+        <v>419.8878007643264</v>
       </c>
       <c r="Q11" t="n">
-        <v>490.8446654962274</v>
+        <v>490.8446654962264</v>
       </c>
       <c r="R11" t="n">
-        <v>490.8446654962274</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="S11" t="n">
-        <v>466.6646106336928</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="T11" t="n">
-        <v>438.172062477852</v>
+        <v>462.3521173403854</v>
       </c>
       <c r="U11" t="n">
-        <v>381.6689126252484</v>
+        <v>405.8489674877819</v>
       </c>
       <c r="V11" t="n">
-        <v>257.7182395201405</v>
+        <v>405.8489674877819</v>
       </c>
       <c r="W11" t="n">
-        <v>257.7182395201405</v>
+        <v>405.8489674877819</v>
       </c>
       <c r="X11" t="n">
-        <v>257.7182395201405</v>
+        <v>405.8489674877819</v>
       </c>
       <c r="Y11" t="n">
-        <v>133.7675664150325</v>
+        <v>304.5738074498144</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>186.2281925798794</v>
+        <v>186.2281925798791</v>
       </c>
       <c r="C12" t="n">
-        <v>62.27751947477149</v>
+        <v>186.2281925798791</v>
       </c>
       <c r="D12" t="n">
-        <v>62.27751947477149</v>
+        <v>186.2281925798791</v>
       </c>
       <c r="E12" t="n">
-        <v>62.27751947477149</v>
+        <v>186.2281925798791</v>
       </c>
       <c r="F12" t="n">
-        <v>62.27751947477149</v>
+        <v>186.2281925798791</v>
       </c>
       <c r="G12" t="n">
-        <v>62.27751947477149</v>
+        <v>62.27751947477147</v>
       </c>
       <c r="H12" t="n">
-        <v>62.27751947477149</v>
+        <v>62.27751947477147</v>
       </c>
       <c r="I12" t="n">
-        <v>62.27751947477149</v>
+        <v>62.27751947477147</v>
       </c>
       <c r="J12" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="K12" t="n">
-        <v>48.6924984314919</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="L12" t="n">
-        <v>167.2520893996963</v>
+        <v>128.376484278129</v>
       </c>
       <c r="M12" t="n">
-        <v>284.6566804676651</v>
+        <v>247.8765560755944</v>
       </c>
       <c r="N12" t="n">
-        <v>406.1407351779814</v>
+        <v>369.3606107859104</v>
       </c>
       <c r="O12" t="n">
-        <v>406.1407351779814</v>
+        <v>490.8446654962264</v>
       </c>
       <c r="P12" t="n">
-        <v>490.8446654962274</v>
+        <v>490.8446654962264</v>
       </c>
       <c r="Q12" t="n">
-        <v>484.6416242957312</v>
+        <v>484.6416242957301</v>
       </c>
       <c r="R12" t="n">
-        <v>484.6416242957312</v>
+        <v>423.5583963411147</v>
       </c>
       <c r="S12" t="n">
-        <v>484.6416242957312</v>
+        <v>423.5583963411147</v>
       </c>
       <c r="T12" t="n">
-        <v>463.6958141610602</v>
+        <v>402.6125862064437</v>
       </c>
       <c r="U12" t="n">
-        <v>420.2451836823252</v>
+        <v>359.1619557277087</v>
       </c>
       <c r="V12" t="n">
-        <v>373.3387685025145</v>
+        <v>312.2555405478981</v>
       </c>
       <c r="W12" t="n">
-        <v>300.1135021493611</v>
+        <v>239.0302741947446</v>
       </c>
       <c r="X12" t="n">
-        <v>276.7788106826126</v>
+        <v>215.6955827279962</v>
       </c>
       <c r="Y12" t="n">
-        <v>247.3114205344955</v>
+        <v>186.2281925798791</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="C13" t="n">
-        <v>9.816893309924549</v>
+        <v>37.29373833618769</v>
       </c>
       <c r="D13" t="n">
-        <v>58.35552375023671</v>
+        <v>62.23418111881149</v>
       </c>
       <c r="E13" t="n">
-        <v>58.35552375023671</v>
+        <v>114.2442555072245</v>
       </c>
       <c r="F13" t="n">
-        <v>58.35552375023671</v>
+        <v>168.9760962994781</v>
       </c>
       <c r="G13" t="n">
-        <v>75.63745296972706</v>
+        <v>168.9760962994781</v>
       </c>
       <c r="H13" t="n">
-        <v>75.63745296972706</v>
+        <v>197.1215076800433</v>
       </c>
       <c r="I13" t="n">
-        <v>75.63745296972706</v>
+        <v>197.1215076800433</v>
       </c>
       <c r="J13" t="n">
-        <v>75.63745296972706</v>
+        <v>197.1215076800433</v>
       </c>
       <c r="K13" t="n">
-        <v>75.63745296972706</v>
+        <v>318.6055623903593</v>
       </c>
       <c r="L13" t="n">
-        <v>75.63745296972706</v>
+        <v>318.6055623903593</v>
       </c>
       <c r="M13" t="n">
-        <v>75.63745296972706</v>
+        <v>318.6055623903593</v>
       </c>
       <c r="N13" t="n">
-        <v>75.63745296972706</v>
+        <v>318.6055623903593</v>
       </c>
       <c r="O13" t="n">
-        <v>197.1215076800434</v>
+        <v>318.6055623903593</v>
       </c>
       <c r="P13" t="n">
-        <v>318.6055623903596</v>
+        <v>318.6055623903593</v>
       </c>
       <c r="Q13" t="n">
-        <v>385.3268090894746</v>
+        <v>385.3268090894743</v>
       </c>
       <c r="R13" t="n">
-        <v>376.232592429597</v>
+        <v>376.2325924295968</v>
       </c>
       <c r="S13" t="n">
-        <v>334.6739073347156</v>
+        <v>334.6739073347154</v>
       </c>
       <c r="T13" t="n">
-        <v>304.8460822688457</v>
+        <v>304.8460822688455</v>
       </c>
       <c r="U13" t="n">
-        <v>209.4473690135989</v>
+        <v>209.4473690135987</v>
       </c>
       <c r="V13" t="n">
-        <v>158.0358081074774</v>
+        <v>158.0358081074773</v>
       </c>
       <c r="W13" t="n">
-        <v>60.9659725499565</v>
+        <v>60.96597254995643</v>
       </c>
       <c r="X13" t="n">
-        <v>32.97820939757986</v>
+        <v>32.97820939757982</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>248.5019495296259</v>
+        <v>90.50009802506246</v>
       </c>
       <c r="C14" t="n">
-        <v>248.5019495296259</v>
+        <v>90.50009802506246</v>
       </c>
       <c r="D14" t="n">
-        <v>133.7675664150325</v>
+        <v>90.50009802506246</v>
       </c>
       <c r="E14" t="n">
-        <v>133.7675664150325</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="F14" t="n">
-        <v>133.7675664150325</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="G14" t="n">
-        <v>133.7675664150325</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="H14" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="I14" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="J14" t="n">
         <v>126.9687252395235</v>
       </c>
       <c r="K14" t="n">
-        <v>126.9687252395235</v>
+        <v>161.0455584180861</v>
       </c>
       <c r="L14" t="n">
-        <v>248.4527799498398</v>
+        <v>209.4326876692978</v>
       </c>
       <c r="M14" t="n">
-        <v>369.936834660156</v>
+        <v>292.1486518474609</v>
       </c>
       <c r="N14" t="n">
-        <v>447.1487935986055</v>
+        <v>369.3606107859104</v>
       </c>
       <c r="O14" t="n">
-        <v>483.1484982030006</v>
+        <v>490.8446654962264</v>
       </c>
       <c r="P14" t="n">
-        <v>490.8446654962274</v>
+        <v>490.8446654962264</v>
       </c>
       <c r="Q14" t="n">
-        <v>490.8446654962274</v>
+        <v>490.8446654962264</v>
       </c>
       <c r="R14" t="n">
-        <v>490.8446654962273</v>
+        <v>490.8446654962264</v>
       </c>
       <c r="S14" t="n">
-        <v>457.4483206431782</v>
+        <v>490.8446654962264</v>
       </c>
       <c r="T14" t="n">
-        <v>428.9557724873374</v>
+        <v>462.3521173403855</v>
       </c>
       <c r="U14" t="n">
-        <v>372.4526226347339</v>
+        <v>462.3521173403855</v>
       </c>
       <c r="V14" t="n">
-        <v>372.4526226347339</v>
+        <v>338.4014442352778</v>
       </c>
       <c r="W14" t="n">
-        <v>372.4526226347339</v>
+        <v>338.4014442352778</v>
       </c>
       <c r="X14" t="n">
-        <v>248.5019495296259</v>
+        <v>338.4014442352778</v>
       </c>
       <c r="Y14" t="n">
-        <v>248.5019495296259</v>
+        <v>214.4507711301701</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>62.27751947477149</v>
+        <v>170.5269461469669</v>
       </c>
       <c r="C15" t="n">
-        <v>62.27751947477149</v>
+        <v>170.5269461469669</v>
       </c>
       <c r="D15" t="n">
-        <v>62.27751947477149</v>
+        <v>170.5269461469669</v>
       </c>
       <c r="E15" t="n">
-        <v>62.27751947477149</v>
+        <v>170.5269461469669</v>
       </c>
       <c r="F15" t="n">
-        <v>62.27751947477149</v>
+        <v>170.5269461469669</v>
       </c>
       <c r="G15" t="n">
-        <v>62.27751947477149</v>
+        <v>170.5269461469669</v>
       </c>
       <c r="H15" t="n">
-        <v>62.27751947477149</v>
+        <v>170.5269461469669</v>
       </c>
       <c r="I15" t="n">
-        <v>62.27751947477149</v>
+        <v>62.27751947477147</v>
       </c>
       <c r="J15" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="K15" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="L15" t="n">
         <v>128.376484278129</v>
       </c>
       <c r="M15" t="n">
-        <v>249.8605389884453</v>
+        <v>249.860538988445</v>
       </c>
       <c r="N15" t="n">
-        <v>284.6566804676651</v>
+        <v>371.344593698761</v>
       </c>
       <c r="O15" t="n">
-        <v>406.1407351779814</v>
+        <v>406.1407351779803</v>
       </c>
       <c r="P15" t="n">
-        <v>490.8446654962274</v>
+        <v>490.8446654962264</v>
       </c>
       <c r="Q15" t="n">
-        <v>490.8446654962274</v>
+        <v>484.6416242957301</v>
       </c>
       <c r="R15" t="n">
-        <v>490.8446654962274</v>
+        <v>484.6416242957301</v>
       </c>
       <c r="S15" t="n">
-        <v>423.5583963411154</v>
+        <v>484.6416242957301</v>
       </c>
       <c r="T15" t="n">
-        <v>402.6125862064443</v>
+        <v>463.6958141610592</v>
       </c>
       <c r="U15" t="n">
-        <v>359.1619557277093</v>
+        <v>420.2451836823242</v>
       </c>
       <c r="V15" t="n">
-        <v>312.2555405478986</v>
+        <v>296.554294114986</v>
       </c>
       <c r="W15" t="n">
-        <v>239.0302741947451</v>
+        <v>223.3290277618325</v>
       </c>
       <c r="X15" t="n">
-        <v>215.6955827279966</v>
+        <v>199.994336295084</v>
       </c>
       <c r="Y15" t="n">
-        <v>186.2281925798794</v>
+        <v>170.5269461469669</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.816893309924549</v>
+        <v>26.24559604012188</v>
       </c>
       <c r="C16" t="n">
-        <v>37.29373833618766</v>
+        <v>53.72244106638502</v>
       </c>
       <c r="D16" t="n">
-        <v>85.83236877649979</v>
+        <v>80.91271054077953</v>
       </c>
       <c r="E16" t="n">
-        <v>137.8424431649128</v>
+        <v>132.9227849291925</v>
       </c>
       <c r="F16" t="n">
-        <v>192.5742839571663</v>
+        <v>132.9227849291925</v>
       </c>
       <c r="G16" t="n">
-        <v>192.5742839571663</v>
+        <v>132.9227849291925</v>
       </c>
       <c r="H16" t="n">
-        <v>192.5742839571663</v>
+        <v>161.0681963097577</v>
       </c>
       <c r="I16" t="n">
-        <v>221.7817361168015</v>
+        <v>190.2756484693929</v>
       </c>
       <c r="J16" t="n">
-        <v>295.3488420265671</v>
+        <v>263.8427543791585</v>
       </c>
       <c r="K16" t="n">
-        <v>318.6055623903599</v>
+        <v>263.8427543791585</v>
       </c>
       <c r="L16" t="n">
-        <v>318.6055623903599</v>
+        <v>263.8427543791585</v>
       </c>
       <c r="M16" t="n">
-        <v>318.6055623903599</v>
+        <v>263.8427543791585</v>
       </c>
       <c r="N16" t="n">
-        <v>318.6055623903599</v>
+        <v>385.3268090894745</v>
       </c>
       <c r="O16" t="n">
-        <v>318.6055623903599</v>
+        <v>385.3268090894745</v>
       </c>
       <c r="P16" t="n">
-        <v>318.6055623903599</v>
+        <v>385.3268090894745</v>
       </c>
       <c r="Q16" t="n">
-        <v>385.3268090894749</v>
+        <v>385.3268090894745</v>
       </c>
       <c r="R16" t="n">
-        <v>376.2325924295972</v>
+        <v>376.2325924295969</v>
       </c>
       <c r="S16" t="n">
-        <v>334.6739073347158</v>
+        <v>334.6739073347155</v>
       </c>
       <c r="T16" t="n">
-        <v>304.8460822688459</v>
+        <v>304.8460822688456</v>
       </c>
       <c r="U16" t="n">
-        <v>209.447369013599</v>
+        <v>209.4473690135988</v>
       </c>
       <c r="V16" t="n">
-        <v>158.0358081074775</v>
+        <v>158.0358081074774</v>
       </c>
       <c r="W16" t="n">
-        <v>60.96597254995655</v>
+        <v>60.96597254995648</v>
       </c>
       <c r="X16" t="n">
-        <v>32.97820939757989</v>
+        <v>32.97820939757985</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>317.4102657154754</v>
+        <v>317.4102657154747</v>
       </c>
       <c r="C17" t="n">
-        <v>287.5525337633683</v>
+        <v>287.5525337633676</v>
       </c>
       <c r="D17" t="n">
-        <v>270.2537288203031</v>
+        <v>270.2537288203024</v>
       </c>
       <c r="E17" t="n">
-        <v>218.9076992111683</v>
+        <v>218.9076992111677</v>
       </c>
       <c r="F17" t="n">
-        <v>135.5209245733695</v>
+        <v>135.5209245733693</v>
       </c>
       <c r="G17" t="n">
-        <v>36.34803106400228</v>
+        <v>36.34803106400226</v>
       </c>
       <c r="H17" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="I17" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="J17" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="K17" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="L17" t="n">
-        <v>58.2040225611362</v>
+        <v>58.20402256113616</v>
       </c>
       <c r="M17" t="n">
         <v>140.9199867392993</v>
       </c>
       <c r="N17" t="n">
-        <v>218.1319456777488</v>
+        <v>218.1319456777487</v>
       </c>
       <c r="O17" t="n">
-        <v>254.1316502821439</v>
+        <v>254.1316502821438</v>
       </c>
       <c r="P17" t="n">
-        <v>254.1316502821439</v>
+        <v>254.1316502821438</v>
       </c>
       <c r="Q17" t="n">
-        <v>254.1316502821439</v>
+        <v>254.1316502821438</v>
       </c>
       <c r="R17" t="n">
-        <v>323.8080988491216</v>
+        <v>254.1316502821438</v>
       </c>
       <c r="S17" t="n">
-        <v>323.8080988491216</v>
+        <v>323.8080988491205</v>
       </c>
       <c r="T17" t="n">
-        <v>421.0529775341731</v>
+        <v>421.052977534172</v>
       </c>
       <c r="U17" t="n">
-        <v>490.8446654962274</v>
+        <v>490.8446654962264</v>
       </c>
       <c r="V17" t="n">
-        <v>490.6088666471776</v>
+        <v>490.6088666471766</v>
       </c>
       <c r="W17" t="n">
-        <v>473.1845019227594</v>
+        <v>473.1845019227583</v>
       </c>
       <c r="X17" t="n">
-        <v>433.6528134923418</v>
+        <v>433.652813492341</v>
       </c>
       <c r="Y17" t="n">
-        <v>371.390970391476</v>
+        <v>371.3909703914753</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>186.2281925798794</v>
+        <v>310.1788656849868</v>
       </c>
       <c r="C18" t="n">
-        <v>186.2281925798794</v>
+        <v>186.2281925798791</v>
       </c>
       <c r="D18" t="n">
-        <v>62.27751947477149</v>
+        <v>186.2281925798791</v>
       </c>
       <c r="E18" t="n">
-        <v>62.27751947477149</v>
+        <v>62.27751947477147</v>
       </c>
       <c r="F18" t="n">
-        <v>62.27751947477149</v>
+        <v>62.27751947477147</v>
       </c>
       <c r="G18" t="n">
-        <v>62.27751947477149</v>
+        <v>62.27751947477147</v>
       </c>
       <c r="H18" t="n">
-        <v>62.27751947477149</v>
+        <v>62.27751947477147</v>
       </c>
       <c r="I18" t="n">
-        <v>62.27751947477149</v>
+        <v>62.27751947477147</v>
       </c>
       <c r="J18" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="K18" t="n">
-        <v>9.816893309924549</v>
+        <v>48.69249843149186</v>
       </c>
       <c r="L18" t="n">
-        <v>128.376484278129</v>
+        <v>167.2520893996963</v>
       </c>
       <c r="M18" t="n">
-        <v>249.8605389884453</v>
+        <v>247.8765560755944</v>
       </c>
       <c r="N18" t="n">
-        <v>284.6566804676651</v>
+        <v>369.3606107859104</v>
       </c>
       <c r="O18" t="n">
-        <v>406.1407351779814</v>
+        <v>490.8446654962264</v>
       </c>
       <c r="P18" t="n">
-        <v>490.8446654962274</v>
+        <v>490.8446654962264</v>
       </c>
       <c r="Q18" t="n">
-        <v>490.8446654962274</v>
+        <v>484.6416242957301</v>
       </c>
       <c r="R18" t="n">
-        <v>490.8446654962274</v>
+        <v>484.6416242957301</v>
       </c>
       <c r="S18" t="n">
-        <v>434.1295387900954</v>
+        <v>484.6416242957301</v>
       </c>
       <c r="T18" t="n">
-        <v>310.1788656849874</v>
+        <v>484.6416242957301</v>
       </c>
       <c r="U18" t="n">
-        <v>310.1788656849874</v>
+        <v>434.1295387900945</v>
       </c>
       <c r="V18" t="n">
-        <v>186.2281925798794</v>
+        <v>434.1295387900945</v>
       </c>
       <c r="W18" t="n">
-        <v>186.2281925798794</v>
+        <v>434.1295387900945</v>
       </c>
       <c r="X18" t="n">
-        <v>186.2281925798794</v>
+        <v>434.1295387900945</v>
       </c>
       <c r="Y18" t="n">
-        <v>186.2281925798794</v>
+        <v>434.1295387900945</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="C19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="D19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="E19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="F19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="G19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="H19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="I19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="J19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="K19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="L19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="M19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="N19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="O19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="P19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="R19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="S19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="T19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="U19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="V19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="W19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="X19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>317.4102657154754</v>
+        <v>317.4102657154751</v>
       </c>
       <c r="C20" t="n">
-        <v>287.5525337633683</v>
+        <v>287.552533763368</v>
       </c>
       <c r="D20" t="n">
-        <v>270.2537288203032</v>
+        <v>270.2537288203028</v>
       </c>
       <c r="E20" t="n">
-        <v>218.9076992111684</v>
+        <v>218.9076992111681</v>
       </c>
       <c r="F20" t="n">
-        <v>135.5209245733696</v>
+        <v>135.5209245733693</v>
       </c>
       <c r="G20" t="n">
-        <v>36.34803106400233</v>
+        <v>36.34803106400226</v>
       </c>
       <c r="H20" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="I20" t="n">
-        <v>89.06417631464147</v>
+        <v>89.0641763146415</v>
       </c>
       <c r="J20" t="n">
-        <v>89.06417631464147</v>
+        <v>89.0641763146415</v>
       </c>
       <c r="K20" t="n">
-        <v>89.06417631464147</v>
+        <v>89.0641763146415</v>
       </c>
       <c r="L20" t="n">
         <v>137.4513055658531</v>
@@ -5774,28 +5774,28 @@
         <v>333.3789332868608</v>
       </c>
       <c r="R20" t="n">
-        <v>454.8629879971771</v>
+        <v>333.3789332868608</v>
       </c>
       <c r="S20" t="n">
-        <v>454.8629879971771</v>
+        <v>425.8176008289786</v>
       </c>
       <c r="T20" t="n">
-        <v>490.8446654962274</v>
+        <v>425.8176008289786</v>
       </c>
       <c r="U20" t="n">
-        <v>490.8446654962274</v>
+        <v>490.8446654962264</v>
       </c>
       <c r="V20" t="n">
-        <v>490.6088666471776</v>
+        <v>490.6088666471765</v>
       </c>
       <c r="W20" t="n">
-        <v>473.1845019227593</v>
+        <v>473.1845019227582</v>
       </c>
       <c r="X20" t="n">
-        <v>433.6528134923417</v>
+        <v>433.6528134923407</v>
       </c>
       <c r="Y20" t="n">
-        <v>371.3909703914759</v>
+        <v>371.3909703914749</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>257.7182395201405</v>
+        <v>236.7402780855148</v>
       </c>
       <c r="C21" t="n">
-        <v>257.7182395201405</v>
+        <v>236.7402780855148</v>
       </c>
       <c r="D21" t="n">
-        <v>257.7182395201405</v>
+        <v>236.7402780855148</v>
       </c>
       <c r="E21" t="n">
-        <v>133.7675664150325</v>
+        <v>236.7402780855148</v>
       </c>
       <c r="F21" t="n">
-        <v>9.816893309924549</v>
+        <v>236.7402780855148</v>
       </c>
       <c r="G21" t="n">
-        <v>9.816893309924549</v>
+        <v>236.7402780855148</v>
       </c>
       <c r="H21" t="n">
-        <v>9.816893309924549</v>
+        <v>170.5269461469669</v>
       </c>
       <c r="I21" t="n">
-        <v>9.816893309924549</v>
+        <v>62.27751947477147</v>
       </c>
       <c r="J21" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="K21" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="L21" t="n">
-        <v>128.376484278129</v>
+        <v>126.3925013652783</v>
       </c>
       <c r="M21" t="n">
-        <v>163.1726257573488</v>
+        <v>247.8765560755944</v>
       </c>
       <c r="N21" t="n">
-        <v>284.6566804676651</v>
+        <v>369.3606107859104</v>
       </c>
       <c r="O21" t="n">
-        <v>406.1407351779814</v>
+        <v>490.8446654962264</v>
       </c>
       <c r="P21" t="n">
-        <v>490.8446654962274</v>
+        <v>490.8446654962264</v>
       </c>
       <c r="Q21" t="n">
-        <v>490.8446654962274</v>
+        <v>484.6416242957301</v>
       </c>
       <c r="R21" t="n">
-        <v>490.8446654962274</v>
+        <v>360.6909511906225</v>
       </c>
       <c r="S21" t="n">
-        <v>366.8939923911195</v>
+        <v>236.7402780855148</v>
       </c>
       <c r="T21" t="n">
-        <v>366.8939923911195</v>
+        <v>236.7402780855148</v>
       </c>
       <c r="U21" t="n">
-        <v>366.8939923911195</v>
+        <v>236.7402780855148</v>
       </c>
       <c r="V21" t="n">
-        <v>366.8939923911195</v>
+        <v>236.7402780855148</v>
       </c>
       <c r="W21" t="n">
-        <v>257.7182395201405</v>
+        <v>236.7402780855148</v>
       </c>
       <c r="X21" t="n">
-        <v>257.7182395201405</v>
+        <v>236.7402780855148</v>
       </c>
       <c r="Y21" t="n">
-        <v>257.7182395201405</v>
+        <v>236.7402780855148</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="C22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="D22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="E22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="F22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="G22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="H22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="I22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="J22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="K22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="L22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="M22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="N22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="O22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="P22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="R22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="S22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="T22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="U22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="V22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="W22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="X22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>317.410265715475</v>
+        <v>317.4102657154752</v>
       </c>
       <c r="C23" t="n">
-        <v>287.5525337633678</v>
+        <v>287.552533763368</v>
       </c>
       <c r="D23" t="n">
-        <v>270.2537288203026</v>
+        <v>270.2537288203029</v>
       </c>
       <c r="E23" t="n">
-        <v>218.9076992111679</v>
+        <v>218.9076992111681</v>
       </c>
       <c r="F23" t="n">
-        <v>135.5209245733692</v>
+        <v>135.5209245733694</v>
       </c>
       <c r="G23" t="n">
-        <v>36.34803106400233</v>
+        <v>36.34803106400227</v>
       </c>
       <c r="H23" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="I23" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="J23" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="K23" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="L23" t="n">
-        <v>58.2040225611362</v>
+        <v>58.20402256113616</v>
       </c>
       <c r="M23" t="n">
         <v>140.9199867392993</v>
       </c>
       <c r="N23" t="n">
-        <v>218.1319456777488</v>
+        <v>218.1319456777487</v>
       </c>
       <c r="O23" t="n">
-        <v>254.1316502821439</v>
+        <v>254.1316502821438</v>
       </c>
       <c r="P23" t="n">
-        <v>254.1316502821439</v>
+        <v>254.1316502821438</v>
       </c>
       <c r="Q23" t="n">
-        <v>254.1316502821439</v>
+        <v>254.1316502821438</v>
       </c>
       <c r="R23" t="n">
-        <v>323.8080988491217</v>
+        <v>254.1316502821438</v>
       </c>
       <c r="S23" t="n">
-        <v>323.8080988491217</v>
+        <v>346.5703178242615</v>
       </c>
       <c r="T23" t="n">
-        <v>421.0529775341731</v>
+        <v>443.815196509313</v>
       </c>
       <c r="U23" t="n">
-        <v>490.8446654962274</v>
+        <v>490.8446654962272</v>
       </c>
       <c r="V23" t="n">
-        <v>490.6088666471776</v>
+        <v>490.6088666471774</v>
       </c>
       <c r="W23" t="n">
-        <v>473.1845019227592</v>
+        <v>473.1845019227591</v>
       </c>
       <c r="X23" t="n">
         <v>433.6528134923416</v>
       </c>
       <c r="Y23" t="n">
-        <v>371.3909703914757</v>
+        <v>371.3909703914758</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>133.7675664150325</v>
+        <v>242.943319286011</v>
       </c>
       <c r="C24" t="n">
-        <v>133.7675664150325</v>
+        <v>242.943319286011</v>
       </c>
       <c r="D24" t="n">
-        <v>9.816893309924549</v>
+        <v>242.943319286011</v>
       </c>
       <c r="E24" t="n">
-        <v>9.816893309924549</v>
+        <v>242.943319286011</v>
       </c>
       <c r="F24" t="n">
-        <v>9.816893309924549</v>
+        <v>242.943319286011</v>
       </c>
       <c r="G24" t="n">
-        <v>9.816893309924549</v>
+        <v>118.9926461809033</v>
       </c>
       <c r="H24" t="n">
-        <v>9.816893309924549</v>
+        <v>62.27751947477147</v>
       </c>
       <c r="I24" t="n">
-        <v>9.816893309924549</v>
+        <v>62.27751947477147</v>
       </c>
       <c r="J24" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="K24" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="L24" t="n">
         <v>128.376484278129</v>
       </c>
       <c r="M24" t="n">
-        <v>163.1726257573488</v>
+        <v>249.860538988445</v>
       </c>
       <c r="N24" t="n">
-        <v>284.6566804676651</v>
+        <v>284.6566804676643</v>
       </c>
       <c r="O24" t="n">
-        <v>406.1407351779814</v>
+        <v>406.1407351779803</v>
       </c>
       <c r="P24" t="n">
-        <v>490.8446654962274</v>
+        <v>490.8446654962264</v>
       </c>
       <c r="Q24" t="n">
-        <v>490.8446654962274</v>
+        <v>490.8446654962264</v>
       </c>
       <c r="R24" t="n">
-        <v>490.8446654962274</v>
+        <v>366.8939923911187</v>
       </c>
       <c r="S24" t="n">
-        <v>490.8446654962274</v>
+        <v>366.8939923911187</v>
       </c>
       <c r="T24" t="n">
-        <v>490.8446654962274</v>
+        <v>366.8939923911187</v>
       </c>
       <c r="U24" t="n">
-        <v>490.8446654962274</v>
+        <v>242.943319286011</v>
       </c>
       <c r="V24" t="n">
-        <v>366.8939923911195</v>
+        <v>242.943319286011</v>
       </c>
       <c r="W24" t="n">
-        <v>242.9433192860115</v>
+        <v>242.943319286011</v>
       </c>
       <c r="X24" t="n">
-        <v>133.7675664150325</v>
+        <v>242.943319286011</v>
       </c>
       <c r="Y24" t="n">
-        <v>133.7675664150325</v>
+        <v>242.943319286011</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="C25" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="D25" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="E25" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="F25" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="G25" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="H25" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="I25" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="J25" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="K25" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="L25" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="M25" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="N25" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="O25" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="P25" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="R25" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="S25" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="T25" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="U25" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="V25" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="W25" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="X25" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.816893309924549</v>
+        <v>9.816893309924527</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>599.5642824986442</v>
       </c>
       <c r="F26" t="n">
-        <v>407.3636102019463</v>
+        <v>407.3636102019462</v>
       </c>
       <c r="G26" t="n">
-        <v>199.3768190336798</v>
+        <v>199.37681903368</v>
       </c>
       <c r="H26" t="n">
         <v>64.03178362070287</v>
       </c>
       <c r="I26" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="J26" t="n">
-        <v>171.7479657778251</v>
+        <v>171.7479657778254</v>
       </c>
       <c r="K26" t="n">
-        <v>377.2225660613047</v>
+        <v>377.2225660613049</v>
       </c>
       <c r="L26" t="n">
-        <v>636.4010735381362</v>
+        <v>636.4010735381364</v>
       </c>
       <c r="M26" t="n">
-        <v>929.9084159419192</v>
+        <v>929.9084159419194</v>
       </c>
       <c r="N26" t="n">
         <v>1217.911753105989</v>
       </c>
       <c r="O26" t="n">
-        <v>1464.702835936003</v>
+        <v>1464.702835936004</v>
       </c>
       <c r="P26" t="n">
         <v>1662.071556543468</v>
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>283.1915055645164</v>
+        <v>240.4530202543064</v>
       </c>
       <c r="C27" t="n">
-        <v>93.7792312974801</v>
+        <v>240.4530202543064</v>
       </c>
       <c r="D27" t="n">
-        <v>93.7792312974801</v>
+        <v>79.67290401533816</v>
       </c>
       <c r="E27" t="n">
-        <v>88.53483597596909</v>
+        <v>79.67290401533816</v>
       </c>
       <c r="F27" t="n">
-        <v>88.53483597596909</v>
+        <v>79.67290401533816</v>
       </c>
       <c r="G27" t="n">
-        <v>88.53483597596909</v>
+        <v>79.67290401533816</v>
       </c>
       <c r="H27" t="n">
-        <v>88.53483597596909</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="I27" t="n">
-        <v>88.53483597596909</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="J27" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="K27" t="n">
         <v>74.94981493268949</v>
@@ -6324,31 +6324,31 @@
         <v>800.7408945687731</v>
       </c>
       <c r="Q27" t="n">
-        <v>800.7408945687731</v>
+        <v>794.5378533682768</v>
       </c>
       <c r="R27" t="n">
-        <v>800.7408945687731</v>
+        <v>794.5378533682768</v>
       </c>
       <c r="S27" t="n">
-        <v>800.7408945687731</v>
+        <v>794.5378533682768</v>
       </c>
       <c r="T27" t="n">
-        <v>798.6930785541959</v>
+        <v>792.4900373536998</v>
       </c>
       <c r="U27" t="n">
-        <v>774.1404421955548</v>
+        <v>767.9374009950587</v>
       </c>
       <c r="V27" t="n">
-        <v>531.0607240991889</v>
+        <v>739.928979935342</v>
       </c>
       <c r="W27" t="n">
-        <v>476.7334518661293</v>
+        <v>685.6017077022824</v>
       </c>
       <c r="X27" t="n">
-        <v>472.2967545194747</v>
+        <v>466.0937133189788</v>
       </c>
       <c r="Y27" t="n">
-        <v>461.7273584914515</v>
+        <v>240.4530202543064</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>71.02483657842352</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="C28" t="n">
-        <v>71.02483657842352</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="D28" t="n">
-        <v>138.0853910558397</v>
+        <v>103.1347642885384</v>
       </c>
       <c r="E28" t="n">
-        <v>208.6173894813567</v>
+        <v>103.1347642885384</v>
       </c>
       <c r="F28" t="n">
-        <v>208.6173894813567</v>
+        <v>103.1347642885384</v>
       </c>
       <c r="G28" t="n">
-        <v>222.4745738933981</v>
+        <v>146.9171117327176</v>
       </c>
       <c r="H28" t="n">
-        <v>222.4745738933981</v>
+        <v>146.9171117327176</v>
       </c>
       <c r="I28" t="n">
-        <v>270.2039500901374</v>
+        <v>146.9171117327176</v>
       </c>
       <c r="J28" t="n">
-        <v>270.2039500901374</v>
+        <v>146.9171117327176</v>
       </c>
       <c r="K28" t="n">
-        <v>270.2039500901374</v>
+        <v>146.9171117327176</v>
       </c>
       <c r="L28" t="n">
-        <v>270.2039500901374</v>
+        <v>146.9171117327176</v>
       </c>
       <c r="M28" t="n">
-        <v>270.2039500901374</v>
+        <v>270.2039500901372</v>
       </c>
       <c r="N28" t="n">
-        <v>270.2039500901374</v>
+        <v>270.2039500901372</v>
       </c>
       <c r="O28" t="n">
-        <v>270.2039500901374</v>
+        <v>270.2039500901372</v>
       </c>
       <c r="P28" t="n">
-        <v>270.2039500901374</v>
+        <v>270.2039500901372</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.2039500901374</v>
+        <v>270.2039500901372</v>
       </c>
       <c r="R28" t="n">
-        <v>270.2039500901374</v>
+        <v>270.2039500901372</v>
       </c>
       <c r="S28" t="n">
-        <v>247.5432591153499</v>
+        <v>247.5432591153497</v>
       </c>
       <c r="T28" t="n">
-        <v>236.6134281695739</v>
+        <v>236.6134281695738</v>
       </c>
       <c r="U28" t="n">
-        <v>160.1127090344209</v>
+        <v>160.1127090344208</v>
       </c>
       <c r="V28" t="n">
         <v>127.5991422483933</v>
       </c>
       <c r="W28" t="n">
-        <v>49.42730081096634</v>
+        <v>49.42730081096629</v>
       </c>
       <c r="X28" t="n">
-        <v>40.33753177868358</v>
+        <v>40.33753177868357</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.07420981112215</v>
+        <v>36.07420981112217</v>
       </c>
     </row>
     <row r="29">
@@ -6440,37 +6440,37 @@
         <v>1024.508541979648</v>
       </c>
       <c r="C29" t="n">
-        <v>885.8369123686422</v>
+        <v>885.8369123686419</v>
       </c>
       <c r="D29" t="n">
-        <v>759.7242097666779</v>
+        <v>759.7242097666776</v>
       </c>
       <c r="E29" t="n">
-        <v>599.564282498644</v>
+        <v>599.5642824986438</v>
       </c>
       <c r="F29" t="n">
-        <v>407.3636102019462</v>
+        <v>407.363610201946</v>
       </c>
       <c r="G29" t="n">
-        <v>199.37681903368</v>
+        <v>199.3768190336797</v>
       </c>
       <c r="H29" t="n">
-        <v>64.03178362070287</v>
+        <v>64.03178362070288</v>
       </c>
       <c r="I29" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="J29" t="n">
-        <v>171.7479657778254</v>
+        <v>171.7479657778252</v>
       </c>
       <c r="K29" t="n">
-        <v>377.2225660613051</v>
+        <v>377.222566061305</v>
       </c>
       <c r="L29" t="n">
-        <v>636.4010735381364</v>
+        <v>636.4010735381362</v>
       </c>
       <c r="M29" t="n">
-        <v>929.9084159419194</v>
+        <v>929.9084159419192</v>
       </c>
       <c r="N29" t="n">
         <v>1217.911753105989</v>
@@ -6488,10 +6488,10 @@
         <v>1803.710490556108</v>
       </c>
       <c r="S29" t="n">
-        <v>1789.212139823152</v>
+        <v>1789.212139823153</v>
       </c>
       <c r="T29" t="n">
-        <v>1779.617585787405</v>
+        <v>1779.617585787406</v>
       </c>
       <c r="U29" t="n">
         <v>1742.012430054896</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>370.4175299286759</v>
+        <v>162.9180613055676</v>
       </c>
       <c r="C30" t="n">
-        <v>370.4175299286759</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="D30" t="n">
-        <v>209.6374136897077</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="E30" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="F30" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="G30" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="H30" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="I30" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="J30" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="K30" t="n">
-        <v>74.94981493268952</v>
+        <v>74.94981493268949</v>
       </c>
       <c r="L30" t="n">
-        <v>193.509405900894</v>
+        <v>193.5094059008939</v>
       </c>
       <c r="M30" t="n">
-        <v>376.6175206836086</v>
+        <v>376.6175206836085</v>
       </c>
       <c r="N30" t="n">
-        <v>582.9918519763009</v>
+        <v>582.9918519763008</v>
       </c>
       <c r="O30" t="n">
-        <v>716.0369642505273</v>
+        <v>716.0369642505271</v>
       </c>
       <c r="P30" t="n">
-        <v>800.7408945687732</v>
+        <v>800.7408945687731</v>
       </c>
       <c r="Q30" t="n">
-        <v>800.7408945687732</v>
+        <v>794.5378533682768</v>
       </c>
       <c r="R30" t="n">
-        <v>800.7408945687732</v>
+        <v>658.8151364543404</v>
       </c>
       <c r="S30" t="n">
-        <v>800.7408945687732</v>
+        <v>465.3961532731749</v>
       </c>
       <c r="T30" t="n">
-        <v>798.6930785541962</v>
+        <v>463.3483372585978</v>
       </c>
       <c r="U30" t="n">
-        <v>559.0691451589059</v>
+        <v>438.7957008999567</v>
       </c>
       <c r="V30" t="n">
-        <v>439.7508955364132</v>
+        <v>410.7872798402399</v>
       </c>
       <c r="W30" t="n">
-        <v>385.4236233033537</v>
+        <v>356.4600076071804</v>
       </c>
       <c r="X30" t="n">
-        <v>380.9869259566992</v>
+        <v>352.0233102605259</v>
       </c>
       <c r="Y30" t="n">
-        <v>370.4175299286759</v>
+        <v>341.4539142325027</v>
       </c>
     </row>
     <row r="31">
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="C31" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="D31" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="E31" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="F31" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="G31" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="H31" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="I31" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="J31" t="n">
-        <v>83.63481693832907</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="K31" t="n">
-        <v>83.63481693832907</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="L31" t="n">
-        <v>83.63481693832907</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="M31" t="n">
-        <v>270.2039500901372</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="N31" t="n">
-        <v>270.2039500901372</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="O31" t="n">
-        <v>270.2039500901372</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="P31" t="n">
-        <v>270.2039500901372</v>
+        <v>184.9607793539182</v>
       </c>
       <c r="Q31" t="n">
         <v>270.2039500901372</v>
@@ -6655,16 +6655,16 @@
         <v>160.1127090344208</v>
       </c>
       <c r="V31" t="n">
-        <v>127.5991422483933</v>
+        <v>127.5991422483932</v>
       </c>
       <c r="W31" t="n">
         <v>49.42730081096629</v>
       </c>
       <c r="X31" t="n">
-        <v>40.33753177868357</v>
+        <v>40.33753177868356</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1024.508541979648</v>
+        <v>1024.508541979649</v>
       </c>
       <c r="C32" t="n">
-        <v>885.8369123686423</v>
+        <v>885.8369123686424</v>
       </c>
       <c r="D32" t="n">
-        <v>759.7242097666779</v>
+        <v>759.7242097666781</v>
       </c>
       <c r="E32" t="n">
-        <v>599.5642824986439</v>
+        <v>599.5642824986442</v>
       </c>
       <c r="F32" t="n">
-        <v>407.363610201946</v>
+        <v>407.3636102019462</v>
       </c>
       <c r="G32" t="n">
-        <v>199.3768190336797</v>
+        <v>199.37681903368</v>
       </c>
       <c r="H32" t="n">
-        <v>64.0317836207029</v>
+        <v>64.03178362070287</v>
       </c>
       <c r="I32" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="J32" t="n">
-        <v>171.7479657778251</v>
+        <v>171.7479657778252</v>
       </c>
       <c r="K32" t="n">
-        <v>377.2225660613046</v>
+        <v>377.2225660613047</v>
       </c>
       <c r="L32" t="n">
-        <v>636.4010735381364</v>
+        <v>636.4010735381362</v>
       </c>
       <c r="M32" t="n">
-        <v>929.9084159419194</v>
+        <v>929.9084159419192</v>
       </c>
       <c r="N32" t="n">
         <v>1217.911753105989</v>
       </c>
       <c r="O32" t="n">
-        <v>1464.702835936004</v>
+        <v>1464.702835936003</v>
       </c>
       <c r="P32" t="n">
         <v>1662.071556543468</v>
@@ -6740,7 +6740,7 @@
         <v>1506.72447116363</v>
       </c>
       <c r="X32" t="n">
-        <v>1358.378885074313</v>
+        <v>1358.378885074314</v>
       </c>
       <c r="Y32" t="n">
         <v>1187.303144314548</v>
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>530.8452462114319</v>
+        <v>104.7303033403703</v>
       </c>
       <c r="C33" t="n">
-        <v>530.8452462114319</v>
+        <v>104.7303033403703</v>
       </c>
       <c r="D33" t="n">
-        <v>370.0651299724636</v>
+        <v>104.7303033403703</v>
       </c>
       <c r="E33" t="n">
-        <v>196.5019260938781</v>
+        <v>104.7303033403703</v>
       </c>
       <c r="F33" t="n">
-        <v>36.07420981112217</v>
+        <v>104.7303033403703</v>
       </c>
       <c r="G33" t="n">
-        <v>36.07420981112217</v>
+        <v>104.7303033403703</v>
       </c>
       <c r="H33" t="n">
-        <v>36.07420981112217</v>
+        <v>104.7303033403703</v>
       </c>
       <c r="I33" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="J33" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="K33" t="n">
         <v>74.94981493268952</v>
@@ -6798,31 +6798,31 @@
         <v>800.7408945687732</v>
       </c>
       <c r="Q33" t="n">
-        <v>800.7408945687732</v>
+        <v>794.5378533682771</v>
       </c>
       <c r="R33" t="n">
-        <v>800.7408945687732</v>
+        <v>658.8151364543406</v>
       </c>
       <c r="S33" t="n">
-        <v>800.7408945687732</v>
+        <v>658.8151364543406</v>
       </c>
       <c r="T33" t="n">
-        <v>798.6930785541961</v>
+        <v>656.7673204397636</v>
       </c>
       <c r="U33" t="n">
-        <v>774.1404421955549</v>
+        <v>632.2146840811225</v>
       </c>
       <c r="V33" t="n">
-        <v>746.132021135838</v>
+        <v>604.2062630214058</v>
       </c>
       <c r="W33" t="n">
-        <v>691.8047489027784</v>
+        <v>334.8076937516971</v>
       </c>
       <c r="X33" t="n">
-        <v>687.3680515561239</v>
+        <v>330.3709964050426</v>
       </c>
       <c r="Y33" t="n">
-        <v>530.8452462114319</v>
+        <v>104.7303033403703</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="C34" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="D34" t="n">
-        <v>68.94595134582383</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="E34" t="n">
-        <v>68.94595134582383</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="F34" t="n">
-        <v>68.94595134582383</v>
+        <v>109.3279746404798</v>
       </c>
       <c r="G34" t="n">
-        <v>68.94595134582383</v>
+        <v>153.1103220846589</v>
       </c>
       <c r="H34" t="n">
-        <v>115.613286763493</v>
+        <v>175.3520970651602</v>
       </c>
       <c r="I34" t="n">
-        <v>115.613286763493</v>
+        <v>175.3520970651602</v>
       </c>
       <c r="J34" t="n">
-        <v>115.613286763493</v>
+        <v>175.3520970651602</v>
       </c>
       <c r="K34" t="n">
-        <v>260.5952678013795</v>
+        <v>175.3520970651602</v>
       </c>
       <c r="L34" t="n">
-        <v>260.5952678013795</v>
+        <v>175.3520970651602</v>
       </c>
       <c r="M34" t="n">
-        <v>260.5952678013795</v>
+        <v>175.3520970651602</v>
       </c>
       <c r="N34" t="n">
-        <v>260.5952678013795</v>
+        <v>175.3520970651602</v>
       </c>
       <c r="O34" t="n">
-        <v>260.5952678013795</v>
+        <v>175.3520970651602</v>
       </c>
       <c r="P34" t="n">
-        <v>260.5952678013795</v>
+        <v>175.3520970651602</v>
       </c>
       <c r="Q34" t="n">
-        <v>260.5952678013795</v>
+        <v>260.5952678013792</v>
       </c>
       <c r="R34" t="n">
-        <v>270.2039500901374</v>
+        <v>270.2039500901372</v>
       </c>
       <c r="S34" t="n">
-        <v>247.5432591153499</v>
+        <v>247.5432591153497</v>
       </c>
       <c r="T34" t="n">
-        <v>236.6134281695739</v>
+        <v>236.6134281695738</v>
       </c>
       <c r="U34" t="n">
-        <v>160.1127090344209</v>
+        <v>160.1127090344208</v>
       </c>
       <c r="V34" t="n">
-        <v>127.5991422483933</v>
+        <v>127.5991422483932</v>
       </c>
       <c r="W34" t="n">
-        <v>49.42730081096635</v>
+        <v>49.42730081096629</v>
       </c>
       <c r="X34" t="n">
-        <v>40.3375317786836</v>
+        <v>40.33753177868356</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>772.2454280561333</v>
+        <v>772.2454280561344</v>
       </c>
       <c r="C35" t="n">
-        <v>669.3219062457952</v>
+        <v>669.3219062457961</v>
       </c>
       <c r="D35" t="n">
-        <v>578.9573114444992</v>
+        <v>578.9573114445</v>
       </c>
       <c r="E35" t="n">
-        <v>454.5454919771336</v>
+        <v>454.5454919771343</v>
       </c>
       <c r="F35" t="n">
-        <v>298.092927481104</v>
+        <v>298.0929274811047</v>
       </c>
       <c r="G35" t="n">
-        <v>125.8542441135062</v>
+        <v>125.8542441135063</v>
       </c>
       <c r="H35" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="I35" t="n">
-        <v>33.89281886586253</v>
+        <v>33.8928188658625</v>
       </c>
       <c r="J35" t="n">
-        <v>204.6032952880005</v>
+        <v>204.6032952880004</v>
       </c>
       <c r="K35" t="n">
-        <v>445.1146160269151</v>
+        <v>318.7225108549778</v>
       </c>
       <c r="L35" t="n">
-        <v>493.5017452781267</v>
+        <v>367.1096401061894</v>
       </c>
       <c r="M35" t="n">
-        <v>818.4360369804472</v>
+        <v>449.8256042843526</v>
       </c>
       <c r="N35" t="n">
-        <v>1039.520647486976</v>
+        <v>772.8656619038568</v>
       </c>
       <c r="O35" t="n">
-        <v>1075.520352091371</v>
+        <v>1054.693465189307</v>
       </c>
       <c r="P35" t="n">
-        <v>1075.520352091371</v>
+        <v>1054.693465189307</v>
       </c>
       <c r="Q35" t="n">
-        <v>1233.674082522342</v>
+        <v>1212.847195620278</v>
       </c>
       <c r="R35" t="n">
-        <v>1287.232727014881</v>
+        <v>1266.405840112817</v>
       </c>
       <c r="S35" t="n">
-        <v>1287.232727014881</v>
+        <v>1287.232727014882</v>
       </c>
       <c r="T35" t="n">
-        <v>1312.865825059881</v>
+        <v>1312.865825059882</v>
       </c>
       <c r="U35" t="n">
-        <v>1311.00877712804</v>
+        <v>1311.008777128041</v>
       </c>
       <c r="V35" t="n">
-        <v>1237.707188420759</v>
+        <v>1237.70718842076</v>
       </c>
       <c r="W35" t="n">
-        <v>1147.21703383811</v>
+        <v>1147.217033838111</v>
       </c>
       <c r="X35" t="n">
-        <v>1034.619555549461</v>
+        <v>1034.619555549463</v>
       </c>
       <c r="Y35" t="n">
-        <v>899.2919225903648</v>
+        <v>899.291922590366</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>58.93771950947041</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="C36" t="n">
-        <v>58.93771950947041</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="D36" t="n">
-        <v>58.93771950947041</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="E36" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="F36" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="G36" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="H36" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="I36" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="J36" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="K36" t="n">
-        <v>65.13292162276497</v>
+        <v>65.132921622765</v>
       </c>
       <c r="L36" t="n">
         <v>183.6925125909694</v>
@@ -7044,22 +7044,22 @@
         <v>790.9240012588486</v>
       </c>
       <c r="T36" t="n">
-        <v>790.9240012588486</v>
+        <v>573.8048882076224</v>
       </c>
       <c r="U36" t="n">
-        <v>790.9240012588486</v>
+        <v>573.8048882076224</v>
       </c>
       <c r="V36" t="n">
-        <v>547.8442831624827</v>
+        <v>573.8048882076224</v>
       </c>
       <c r="W36" t="n">
-        <v>278.4457138927741</v>
+        <v>304.4063189379137</v>
       </c>
       <c r="X36" t="n">
-        <v>58.93771950947041</v>
+        <v>84.8983245546101</v>
       </c>
       <c r="Y36" t="n">
-        <v>58.93771950947041</v>
+        <v>26.25731650119764</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="C37" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="D37" t="n">
-        <v>96.60668424139527</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="E37" t="n">
-        <v>96.60668424139527</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="F37" t="n">
-        <v>96.60668424139527</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="G37" t="n">
-        <v>96.60668424139527</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="H37" t="n">
-        <v>96.60668424139527</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="I37" t="n">
-        <v>96.60668424139527</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="J37" t="n">
-        <v>96.60668424139527</v>
+        <v>109.4336614724411</v>
       </c>
       <c r="K37" t="n">
-        <v>96.60668424139527</v>
+        <v>109.4336614724411</v>
       </c>
       <c r="L37" t="n">
-        <v>96.60668424139527</v>
+        <v>109.4336614724411</v>
       </c>
       <c r="M37" t="n">
-        <v>96.60668424139527</v>
+        <v>109.4336614724411</v>
       </c>
       <c r="N37" t="n">
-        <v>96.60668424139527</v>
+        <v>109.4336614724411</v>
       </c>
       <c r="O37" t="n">
-        <v>96.60668424139527</v>
+        <v>109.4336614724411</v>
       </c>
       <c r="P37" t="n">
-        <v>96.60668424139527</v>
+        <v>109.4336614724411</v>
       </c>
       <c r="Q37" t="n">
-        <v>96.60668424139527</v>
+        <v>109.4336614724411</v>
       </c>
       <c r="R37" t="n">
-        <v>96.60668424139527</v>
+        <v>109.4336614724411</v>
       </c>
       <c r="S37" t="n">
-        <v>109.433661472441</v>
+        <v>109.4336614724411</v>
       </c>
       <c r="T37" t="n">
-        <v>109.433661472441</v>
+        <v>109.4336614724411</v>
       </c>
       <c r="U37" t="n">
-        <v>68.68105013795632</v>
+        <v>68.68105013795639</v>
       </c>
       <c r="V37" t="n">
-        <v>68.68105013795632</v>
+        <v>68.68105013795639</v>
       </c>
       <c r="W37" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="X37" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119764</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>772.2454280561331</v>
+        <v>772.2454280561337</v>
       </c>
       <c r="C38" t="n">
-        <v>669.321906245795</v>
+        <v>669.3219062457957</v>
       </c>
       <c r="D38" t="n">
-        <v>578.9573114444991</v>
+        <v>578.9573114444995</v>
       </c>
       <c r="E38" t="n">
-        <v>454.5454919771335</v>
+        <v>454.5454919771339</v>
       </c>
       <c r="F38" t="n">
-        <v>298.0929274811039</v>
+        <v>298.0929274811042</v>
       </c>
       <c r="G38" t="n">
-        <v>125.8542441135062</v>
+        <v>125.8542441135063</v>
       </c>
       <c r="H38" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="I38" t="n">
-        <v>33.89281886586253</v>
+        <v>33.8928188658625</v>
       </c>
       <c r="J38" t="n">
-        <v>204.6032952880005</v>
+        <v>204.6032952880004</v>
       </c>
       <c r="K38" t="n">
-        <v>445.1146160269151</v>
+        <v>204.6032952880004</v>
       </c>
       <c r="L38" t="n">
-        <v>626.3603964053987</v>
+        <v>498.8185232202667</v>
       </c>
       <c r="M38" t="n">
-        <v>709.0763605835618</v>
+        <v>581.5344873984299</v>
       </c>
       <c r="N38" t="n">
-        <v>786.2883195220113</v>
+        <v>658.7464463368793</v>
       </c>
       <c r="O38" t="n">
-        <v>822.2880241264064</v>
+        <v>940.5742496223291</v>
       </c>
       <c r="P38" t="n">
-        <v>1054.693465189305</v>
+        <v>1054.693465189307</v>
       </c>
       <c r="Q38" t="n">
-        <v>1212.847195620277</v>
+        <v>1212.847195620278</v>
       </c>
       <c r="R38" t="n">
-        <v>1266.405840112816</v>
+        <v>1266.405840112817</v>
       </c>
       <c r="S38" t="n">
-        <v>1287.232727014881</v>
+        <v>1287.232727014882</v>
       </c>
       <c r="T38" t="n">
-        <v>1312.865825059881</v>
+        <v>1312.865825059882</v>
       </c>
       <c r="U38" t="n">
-        <v>1311.008777128039</v>
+        <v>1311.00877712804</v>
       </c>
       <c r="V38" t="n">
-        <v>1237.707188420759</v>
+        <v>1237.70718842076</v>
       </c>
       <c r="W38" t="n">
         <v>1147.21703383811</v>
       </c>
       <c r="X38" t="n">
-        <v>1034.619555549461</v>
+        <v>1034.619555549462</v>
       </c>
       <c r="Y38" t="n">
-        <v>899.2919225903645</v>
+        <v>899.2919225903653</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>360.6006366187514</v>
+        <v>215.6695907682339</v>
       </c>
       <c r="C39" t="n">
-        <v>360.6006366187514</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="D39" t="n">
-        <v>199.8205203797831</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="E39" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="F39" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="G39" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="H39" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="I39" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="J39" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="K39" t="n">
-        <v>65.13292162276497</v>
+        <v>65.132921622765</v>
       </c>
       <c r="L39" t="n">
         <v>183.6925125909694</v>
@@ -7278,25 +7278,25 @@
         <v>790.9240012588486</v>
       </c>
       <c r="S39" t="n">
-        <v>790.9240012588486</v>
+        <v>710.708853102615</v>
       </c>
       <c r="T39" t="n">
-        <v>790.9240012588486</v>
+        <v>710.708853102615</v>
       </c>
       <c r="U39" t="n">
-        <v>790.9240012588486</v>
+        <v>710.708853102615</v>
       </c>
       <c r="V39" t="n">
-        <v>790.9240012588486</v>
+        <v>710.708853102615</v>
       </c>
       <c r="W39" t="n">
-        <v>772.3448368264574</v>
+        <v>441.3102838329063</v>
       </c>
       <c r="X39" t="n">
-        <v>586.2413296834238</v>
+        <v>441.3102838329063</v>
       </c>
       <c r="Y39" t="n">
-        <v>360.6006366187514</v>
+        <v>215.6695907682339</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>26.25731650119761</v>
+        <v>83.24339292312021</v>
       </c>
       <c r="C40" t="n">
-        <v>26.25731650119761</v>
+        <v>83.24339292312021</v>
       </c>
       <c r="D40" t="n">
-        <v>26.25731650119761</v>
+        <v>83.24339292312021</v>
       </c>
       <c r="E40" t="n">
-        <v>26.25731650119761</v>
+        <v>109.4336614724411</v>
       </c>
       <c r="F40" t="n">
-        <v>26.25731650119761</v>
+        <v>109.4336614724411</v>
       </c>
       <c r="G40" t="n">
-        <v>26.25731650119761</v>
+        <v>109.4336614724411</v>
       </c>
       <c r="H40" t="n">
-        <v>26.25731650119761</v>
+        <v>109.4336614724411</v>
       </c>
       <c r="I40" t="n">
-        <v>26.25731650119761</v>
+        <v>109.4336614724411</v>
       </c>
       <c r="J40" t="n">
-        <v>26.25731650119761</v>
+        <v>109.4336614724411</v>
       </c>
       <c r="K40" t="n">
-        <v>26.25731650119761</v>
+        <v>109.4336614724411</v>
       </c>
       <c r="L40" t="n">
-        <v>26.25731650119761</v>
+        <v>109.4336614724411</v>
       </c>
       <c r="M40" t="n">
-        <v>26.25731650119761</v>
+        <v>109.4336614724411</v>
       </c>
       <c r="N40" t="n">
-        <v>26.25731650119761</v>
+        <v>109.4336614724411</v>
       </c>
       <c r="O40" t="n">
-        <v>26.25731650119761</v>
+        <v>109.4336614724411</v>
       </c>
       <c r="P40" t="n">
-        <v>109.433661472441</v>
+        <v>109.4336614724411</v>
       </c>
       <c r="Q40" t="n">
-        <v>109.433661472441</v>
+        <v>109.4336614724411</v>
       </c>
       <c r="R40" t="n">
-        <v>109.433661472441</v>
+        <v>109.4336614724411</v>
       </c>
       <c r="S40" t="n">
-        <v>109.433661472441</v>
+        <v>109.4336614724411</v>
       </c>
       <c r="T40" t="n">
-        <v>109.433661472441</v>
+        <v>109.4336614724411</v>
       </c>
       <c r="U40" t="n">
-        <v>68.68105013795632</v>
+        <v>68.68105013795639</v>
       </c>
       <c r="V40" t="n">
-        <v>68.68105013795632</v>
+        <v>68.68105013795639</v>
       </c>
       <c r="W40" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119764</v>
       </c>
       <c r="X40" t="n">
-        <v>26.25731650119761</v>
+        <v>52.38515432809224</v>
       </c>
       <c r="Y40" t="n">
-        <v>26.25731650119761</v>
+        <v>83.24339292312021</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>820.8965178780265</v>
+        <v>820.8965178780268</v>
       </c>
       <c r="C41" t="n">
-        <v>710.1824620766009</v>
+        <v>710.1824620766012</v>
       </c>
       <c r="D41" t="n">
-        <v>612.0273332842173</v>
+        <v>612.0273332842175</v>
       </c>
       <c r="E41" t="n">
-        <v>479.8249798257641</v>
+        <v>479.8249798257643</v>
       </c>
       <c r="F41" t="n">
-        <v>315.5818813386468</v>
+        <v>315.581881338647</v>
       </c>
       <c r="G41" t="n">
         <v>135.5526639799622</v>
@@ -7409,25 +7409,25 @@
         <v>28.165202376566</v>
       </c>
       <c r="J41" t="n">
-        <v>152.802289805208</v>
+        <v>28.165202376566</v>
       </c>
       <c r="K41" t="n">
-        <v>385.6781081794576</v>
+        <v>235.1598801131514</v>
       </c>
       <c r="L41" t="n">
-        <v>672.2578337470591</v>
+        <v>283.5470093643631</v>
       </c>
       <c r="M41" t="n">
-        <v>754.9737979252222</v>
+        <v>366.2629735425263</v>
       </c>
       <c r="N41" t="n">
-        <v>832.1857568636717</v>
+        <v>681.6675287973655</v>
       </c>
       <c r="O41" t="n">
-        <v>1106.378057784457</v>
+        <v>955.8598297181505</v>
       </c>
       <c r="P41" t="n">
-        <v>1331.147996482691</v>
+        <v>1180.629768416385</v>
       </c>
       <c r="Q41" t="n">
         <v>1331.147996482691</v>
@@ -7454,7 +7454,7 @@
         <v>1098.85171335353</v>
       </c>
       <c r="Y41" t="n">
-        <v>955.7335464033456</v>
+        <v>955.7335464033458</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>362.1561225379074</v>
+        <v>517.1794294138762</v>
       </c>
       <c r="C42" t="n">
-        <v>362.1561225379074</v>
+        <v>517.1794294138762</v>
       </c>
       <c r="D42" t="n">
-        <v>362.1561225379074</v>
+        <v>517.1794294138762</v>
       </c>
       <c r="E42" t="n">
-        <v>188.5929186593219</v>
+        <v>517.1794294138762</v>
       </c>
       <c r="F42" t="n">
-        <v>28.165202376566</v>
+        <v>356.7517131311203</v>
       </c>
       <c r="G42" t="n">
-        <v>28.165202376566</v>
+        <v>207.575738285699</v>
       </c>
       <c r="H42" t="n">
-        <v>28.165202376566</v>
+        <v>80.62582854141293</v>
       </c>
       <c r="I42" t="n">
-        <v>28.165202376566</v>
+        <v>80.62582854141293</v>
       </c>
       <c r="J42" t="n">
         <v>28.165202376566</v>
       </c>
       <c r="K42" t="n">
-        <v>67.04080749813335</v>
+        <v>67.04080749813336</v>
       </c>
       <c r="L42" t="n">
         <v>185.6003984663378</v>
@@ -7506,34 +7506,34 @@
         <v>708.1279568159711</v>
       </c>
       <c r="P42" t="n">
-        <v>792.831887134217</v>
+        <v>792.8318871342171</v>
       </c>
       <c r="Q42" t="n">
-        <v>792.831887134217</v>
+        <v>786.628845933721</v>
       </c>
       <c r="R42" t="n">
-        <v>792.831887134217</v>
+        <v>786.628845933721</v>
       </c>
       <c r="S42" t="n">
-        <v>792.831887134217</v>
+        <v>786.628845933721</v>
       </c>
       <c r="T42" t="n">
-        <v>575.7127740829908</v>
+        <v>786.628845933721</v>
       </c>
       <c r="U42" t="n">
-        <v>575.7127740829908</v>
+        <v>786.628845933721</v>
       </c>
       <c r="V42" t="n">
-        <v>575.6619268328546</v>
+        <v>543.5491278373551</v>
       </c>
       <c r="W42" t="n">
-        <v>549.2922284093758</v>
+        <v>517.1794294138762</v>
       </c>
       <c r="X42" t="n">
-        <v>362.1561225379074</v>
+        <v>517.1794294138762</v>
       </c>
       <c r="Y42" t="n">
-        <v>362.1561225379074</v>
+        <v>517.1794294138762</v>
       </c>
     </row>
     <row r="43">
@@ -7549,52 +7549,52 @@
         <v>28.165202376566</v>
       </c>
       <c r="D43" t="n">
-        <v>122.6269749447522</v>
+        <v>28.165202376566</v>
       </c>
       <c r="E43" t="n">
-        <v>122.6269749447522</v>
+        <v>28.165202376566</v>
       </c>
       <c r="F43" t="n">
-        <v>122.6269749447522</v>
+        <v>28.165202376566</v>
       </c>
       <c r="G43" t="n">
-        <v>122.6269749447522</v>
+        <v>28.165202376566</v>
       </c>
       <c r="H43" t="n">
-        <v>122.6269749447522</v>
+        <v>28.165202376566</v>
       </c>
       <c r="I43" t="n">
-        <v>122.6269749447522</v>
+        <v>28.165202376566</v>
       </c>
       <c r="J43" t="n">
-        <v>122.6269749447522</v>
+        <v>28.165202376566</v>
       </c>
       <c r="K43" t="n">
-        <v>122.6269749447522</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="L43" t="n">
-        <v>122.6269749447522</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="M43" t="n">
-        <v>122.6269749447522</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="N43" t="n">
-        <v>122.6269749447522</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="O43" t="n">
-        <v>122.6269749447522</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="P43" t="n">
-        <v>122.6269749447522</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="Q43" t="n">
-        <v>122.6269749447522</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6269749447522</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="S43" t="n">
-        <v>127.818449811133</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="T43" t="n">
         <v>131.4786083064315</v>
@@ -7631,10 +7631,10 @@
         <v>612.0273332842175</v>
       </c>
       <c r="E44" t="n">
-        <v>479.824979825764</v>
+        <v>479.8249798257642</v>
       </c>
       <c r="F44" t="n">
-        <v>315.5818813386468</v>
+        <v>315.581881338647</v>
       </c>
       <c r="G44" t="n">
         <v>135.5526639799622</v>
@@ -7646,25 +7646,25 @@
         <v>28.165202376566</v>
       </c>
       <c r="J44" t="n">
-        <v>191.240176434039</v>
+        <v>28.165202376566</v>
       </c>
       <c r="K44" t="n">
-        <v>424.1159948082886</v>
+        <v>235.1598801131512</v>
       </c>
       <c r="L44" t="n">
-        <v>710.69572037589</v>
+        <v>283.5470093643629</v>
       </c>
       <c r="M44" t="n">
-        <v>793.4116845540532</v>
+        <v>366.2629735425261</v>
       </c>
       <c r="N44" t="n">
-        <v>1108.816239808893</v>
+        <v>681.6675287973654</v>
       </c>
       <c r="O44" t="n">
-        <v>1144.815944413288</v>
+        <v>955.8598297181504</v>
       </c>
       <c r="P44" t="n">
-        <v>1180.629768416384</v>
+        <v>1180.629768416385</v>
       </c>
       <c r="Q44" t="n">
         <v>1331.147996482691</v>
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>188.5929186593219</v>
+        <v>155.1151121208521</v>
       </c>
       <c r="C45" t="n">
-        <v>188.5929186593219</v>
+        <v>155.1151121208521</v>
       </c>
       <c r="D45" t="n">
-        <v>188.5929186593219</v>
+        <v>155.1151121208521</v>
       </c>
       <c r="E45" t="n">
-        <v>188.5929186593219</v>
+        <v>155.1151121208521</v>
       </c>
       <c r="F45" t="n">
-        <v>28.165202376566</v>
+        <v>155.1151121208521</v>
       </c>
       <c r="G45" t="n">
-        <v>28.165202376566</v>
+        <v>155.1151121208521</v>
       </c>
       <c r="H45" t="n">
         <v>28.165202376566</v>
@@ -7728,49 +7728,49 @@
         <v>28.165202376566</v>
       </c>
       <c r="K45" t="n">
-        <v>67.04080749813335</v>
+        <v>67.04080749813339</v>
       </c>
       <c r="L45" t="n">
-        <v>185.6003984663378</v>
+        <v>185.6003984663379</v>
       </c>
       <c r="M45" t="n">
-        <v>368.7085132490524</v>
+        <v>368.7085132490525</v>
       </c>
       <c r="N45" t="n">
-        <v>575.0828445417447</v>
+        <v>575.082844541745</v>
       </c>
       <c r="O45" t="n">
-        <v>708.1279568159711</v>
+        <v>708.1279568159714</v>
       </c>
       <c r="P45" t="n">
-        <v>792.831887134217</v>
+        <v>792.8318871342175</v>
       </c>
       <c r="Q45" t="n">
-        <v>792.831887134217</v>
+        <v>786.6288459337213</v>
       </c>
       <c r="R45" t="n">
-        <v>792.831887134217</v>
+        <v>786.6288459337213</v>
       </c>
       <c r="S45" t="n">
-        <v>792.831887134217</v>
+        <v>786.6288459337213</v>
       </c>
       <c r="T45" t="n">
-        <v>792.831887134217</v>
+        <v>786.6288459337213</v>
       </c>
       <c r="U45" t="n">
-        <v>792.831887134217</v>
+        <v>650.2052217053692</v>
       </c>
       <c r="V45" t="n">
-        <v>792.7810398840809</v>
+        <v>650.1543744552331</v>
       </c>
       <c r="W45" t="n">
-        <v>633.7416061072979</v>
+        <v>380.7558051855244</v>
       </c>
       <c r="X45" t="n">
-        <v>414.2336117239943</v>
+        <v>380.7558051855244</v>
       </c>
       <c r="Y45" t="n">
-        <v>188.5929186593219</v>
+        <v>155.1151121208521</v>
       </c>
     </row>
     <row r="46">
@@ -7795,43 +7795,43 @@
         <v>28.165202376566</v>
       </c>
       <c r="G46" t="n">
-        <v>28.165202376566</v>
+        <v>99.34876791151518</v>
       </c>
       <c r="H46" t="n">
-        <v>28.165202376566</v>
+        <v>114.7897175256165</v>
       </c>
       <c r="I46" t="n">
-        <v>28.165202376566</v>
+        <v>114.7897175256165</v>
       </c>
       <c r="J46" t="n">
-        <v>131.4786083064315</v>
+        <v>114.7897175256165</v>
       </c>
       <c r="K46" t="n">
-        <v>131.4786083064315</v>
+        <v>114.7897175256165</v>
       </c>
       <c r="L46" t="n">
-        <v>131.4786083064315</v>
+        <v>114.7897175256165</v>
       </c>
       <c r="M46" t="n">
-        <v>131.4786083064315</v>
+        <v>114.7897175256165</v>
       </c>
       <c r="N46" t="n">
-        <v>131.4786083064315</v>
+        <v>114.7897175256165</v>
       </c>
       <c r="O46" t="n">
-        <v>131.4786083064315</v>
+        <v>114.7897175256165</v>
       </c>
       <c r="P46" t="n">
-        <v>131.4786083064315</v>
+        <v>114.7897175256165</v>
       </c>
       <c r="Q46" t="n">
-        <v>131.4786083064315</v>
+        <v>114.7897175256165</v>
       </c>
       <c r="R46" t="n">
-        <v>131.4786083064315</v>
+        <v>114.7897175256165</v>
       </c>
       <c r="S46" t="n">
-        <v>131.4786083064315</v>
+        <v>114.7897175256165</v>
       </c>
       <c r="T46" t="n">
         <v>131.4786083064315</v>
@@ -8769,22 +8769,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>171.373473584151</v>
+        <v>132.1051855825678</v>
       </c>
       <c r="L12" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
-        <v>235.4096856385395</v>
+        <v>237.5263328400513</v>
       </c>
       <c r="N12" t="n">
-        <v>224.8661044510105</v>
+        <v>224.8661044510103</v>
       </c>
       <c r="O12" t="n">
-        <v>120.8337805941225</v>
+        <v>243.544946968179</v>
       </c>
       <c r="P12" t="n">
-        <v>206.3638740786793</v>
+        <v>120.8043485046934</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9012,13 +9012,13 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
-        <v>239.5303559843451</v>
+        <v>239.5303559843449</v>
       </c>
       <c r="N15" t="n">
-        <v>137.3025557327313</v>
+        <v>224.8661044510102</v>
       </c>
       <c r="O15" t="n">
-        <v>243.5449469681793</v>
+        <v>155.9813982498996</v>
       </c>
       <c r="P15" t="n">
         <v>206.3638740786793</v>
@@ -9243,22 +9243,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>132.1051855825678</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>239.5303559843451</v>
+        <v>198.2580448384682</v>
       </c>
       <c r="N18" t="n">
-        <v>137.3025557327313</v>
+        <v>224.8661044510103</v>
       </c>
       <c r="O18" t="n">
-        <v>243.5449469681793</v>
+        <v>243.544946968179</v>
       </c>
       <c r="P18" t="n">
-        <v>206.3638740786793</v>
+        <v>120.8043485046934</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9483,19 +9483,19 @@
         <v>132.1051855825678</v>
       </c>
       <c r="L21" t="n">
-        <v>240.3045437566416</v>
+        <v>238.300520612348</v>
       </c>
       <c r="M21" t="n">
-        <v>151.9668072660659</v>
+        <v>239.5303559843449</v>
       </c>
       <c r="N21" t="n">
-        <v>224.8661044510105</v>
+        <v>224.8661044510103</v>
       </c>
       <c r="O21" t="n">
-        <v>243.5449469681793</v>
+        <v>243.544946968179</v>
       </c>
       <c r="P21" t="n">
-        <v>206.3638740786793</v>
+        <v>120.8043485046934</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9723,13 +9723,13 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
-        <v>151.9668072660659</v>
+        <v>239.5303559843449</v>
       </c>
       <c r="N24" t="n">
-        <v>224.8661044510105</v>
+        <v>137.3025557327308</v>
       </c>
       <c r="O24" t="n">
-        <v>243.5449469681793</v>
+        <v>243.544946968179</v>
       </c>
       <c r="P24" t="n">
         <v>206.3638740786793</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>179.8756704904437</v>
+        <v>179.8756704904436</v>
       </c>
       <c r="C11" t="n">
-        <v>155.9939274937892</v>
+        <v>33.28276111973254</v>
       </c>
       <c r="D11" t="n">
         <v>143.5605897548376</v>
@@ -23270,13 +23270,13 @@
         <v>208.9876797526238</v>
       </c>
       <c r="G11" t="n">
-        <v>224.6159374354766</v>
+        <v>224.6159374354765</v>
       </c>
       <c r="H11" t="n">
-        <v>29.98943286368322</v>
+        <v>29.98943286368345</v>
       </c>
       <c r="I11" t="n">
-        <v>46.38701225037786</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.124127090609225</v>
+        <v>33.0623814045185</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.957047347705497</v>
+        <v>126.6682137217623</v>
       </c>
       <c r="W11" t="n">
         <v>143.6848939383772</v>
       </c>
       <c r="X11" t="n">
-        <v>165.5711444073165</v>
+        <v>165.5711444073164</v>
       </c>
       <c r="Y11" t="n">
-        <v>65.36283115700337</v>
+        <v>87.81158909347231</v>
       </c>
     </row>
     <row r="12">
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>179.8756704904437</v>
+        <v>57.16450411638708</v>
       </c>
       <c r="C14" t="n">
         <v>155.9939274937892</v>
       </c>
       <c r="D14" t="n">
-        <v>29.97355047139009</v>
+        <v>143.5605897548376</v>
       </c>
       <c r="E14" t="n">
-        <v>177.2673421742465</v>
+        <v>97.39096950625995</v>
       </c>
       <c r="F14" t="n">
         <v>208.9876797526238</v>
@@ -23510,10 +23510,10 @@
         <v>224.6159374354766</v>
       </c>
       <c r="H14" t="n">
-        <v>29.98943286368323</v>
+        <v>152.7005992377401</v>
       </c>
       <c r="I14" t="n">
-        <v>46.38701225037789</v>
+        <v>46.38701225037786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>33.06238140451853</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>55.93811835407752</v>
       </c>
       <c r="V14" t="n">
-        <v>126.6682137217624</v>
+        <v>3.957047347705782</v>
       </c>
       <c r="W14" t="n">
-        <v>143.6848939383773</v>
+        <v>143.6848939383772</v>
       </c>
       <c r="X14" t="n">
-        <v>42.85997803325964</v>
+        <v>165.5711444073165</v>
       </c>
       <c r="Y14" t="n">
-        <v>188.0739975310603</v>
+        <v>65.36283115700364</v>
       </c>
     </row>
     <row r="15">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>8.313350008393172e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>997207.0902392904</v>
+        <v>997207.0902392903</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>997207.0902392904</v>
+        <v>997207.0902392903</v>
       </c>
     </row>
     <row r="7">
@@ -26317,43 +26317,43 @@
         <v>463014.2974676414</v>
       </c>
       <c r="D2" t="n">
-        <v>463014.2974676414</v>
+        <v>463014.2974676413</v>
       </c>
       <c r="E2" t="n">
-        <v>398994.7967357513</v>
+        <v>398994.796735751</v>
       </c>
       <c r="F2" t="n">
-        <v>398994.7967357512</v>
+        <v>398994.7967357511</v>
       </c>
       <c r="G2" t="n">
+        <v>463952.238150731</v>
+      </c>
+      <c r="H2" t="n">
+        <v>463952.2381507312</v>
+      </c>
+      <c r="I2" t="n">
+        <v>463952.2381507312</v>
+      </c>
+      <c r="J2" t="n">
+        <v>463952.2381507314</v>
+      </c>
+      <c r="K2" t="n">
+        <v>463952.2381507314</v>
+      </c>
+      <c r="L2" t="n">
         <v>463952.2381507311</v>
-      </c>
-      <c r="H2" t="n">
-        <v>463952.2381507313</v>
-      </c>
-      <c r="I2" t="n">
-        <v>463952.2381507311</v>
-      </c>
-      <c r="J2" t="n">
-        <v>463952.2381507315</v>
-      </c>
-      <c r="K2" t="n">
-        <v>463952.2381507313</v>
-      </c>
-      <c r="L2" t="n">
-        <v>463952.2381507312</v>
       </c>
       <c r="M2" t="n">
         <v>463952.2381507311</v>
       </c>
       <c r="N2" t="n">
-        <v>463952.2381507311</v>
+        <v>463952.238150731</v>
       </c>
       <c r="O2" t="n">
-        <v>463952.2381507309</v>
+        <v>463952.238150731</v>
       </c>
       <c r="P2" t="n">
-        <v>463952.2381507311</v>
+        <v>463952.238150731</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>275420.994764991</v>
+        <v>275420.9947649909</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>155064.5154470555</v>
+        <v>155064.5154470556</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>101147.8182889625</v>
       </c>
       <c r="M3" t="n">
-        <v>28312.50137812924</v>
+        <v>28312.50137812922</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>68757.72909053824</v>
+        <v>68757.72909053825</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26439,22 +26439,22 @@
         <v>409186.2663395518</v>
       </c>
       <c r="J4" t="n">
-        <v>407456.4004199019</v>
+        <v>407456.4004199021</v>
       </c>
       <c r="K4" t="n">
+        <v>407456.400419902</v>
+      </c>
+      <c r="L4" t="n">
         <v>407456.4004199021</v>
       </c>
-      <c r="L4" t="n">
-        <v>407456.4004199019</v>
-      </c>
       <c r="M4" t="n">
-        <v>406912.0322437917</v>
+        <v>406912.0322437918</v>
       </c>
       <c r="N4" t="n">
-        <v>406912.0322437918</v>
+        <v>406912.0322437919</v>
       </c>
       <c r="O4" t="n">
-        <v>407014.9608031419</v>
+        <v>407014.9608031418</v>
       </c>
       <c r="P4" t="n">
         <v>407014.9608031418</v>
@@ -26476,22 +26476,22 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26051.38465538858</v>
+        <v>26051.38465538857</v>
       </c>
       <c r="F5" t="n">
-        <v>26051.38465538858</v>
+        <v>26051.38465538857</v>
       </c>
       <c r="G5" t="n">
-        <v>36680.62957505706</v>
+        <v>36680.62957505705</v>
       </c>
       <c r="H5" t="n">
-        <v>36680.62957505706</v>
+        <v>36680.62957505705</v>
       </c>
       <c r="I5" t="n">
-        <v>36680.62957505706</v>
+        <v>36680.62957505705</v>
       </c>
       <c r="J5" t="n">
-        <v>47579.79330930411</v>
+        <v>47579.79330930412</v>
       </c>
       <c r="K5" t="n">
         <v>47579.79330930412</v>
@@ -26500,10 +26500,10 @@
         <v>47579.79330930412</v>
       </c>
       <c r="M5" t="n">
-        <v>43094.2089917089</v>
+        <v>43094.20899170891</v>
       </c>
       <c r="N5" t="n">
-        <v>43094.2089917089</v>
+        <v>43094.20899170891</v>
       </c>
       <c r="O5" t="n">
         <v>43895.8092789131</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-16712.94738091403</v>
+        <v>-16717.41376511921</v>
       </c>
       <c r="C6" t="n">
-        <v>-16712.94738091391</v>
+        <v>-16717.4137651191</v>
       </c>
       <c r="D6" t="n">
-        <v>-16712.94738091397</v>
+        <v>-16717.41376511921</v>
       </c>
       <c r="E6" t="n">
-        <v>-241160.7701029131</v>
+        <v>-241470.0912525083</v>
       </c>
       <c r="F6" t="n">
-        <v>34260.22466207798</v>
+        <v>33950.90351248268</v>
       </c>
       <c r="G6" t="n">
-        <v>-83062.47605284024</v>
+        <v>-83062.47605284027</v>
       </c>
       <c r="H6" t="n">
-        <v>18085.34223612253</v>
+        <v>18085.34223612237</v>
       </c>
       <c r="I6" t="n">
-        <v>18085.3422361223</v>
+        <v>18085.34223612237</v>
       </c>
       <c r="J6" t="n">
-        <v>-146148.4710255299</v>
+        <v>-146148.4710255304</v>
       </c>
       <c r="K6" t="n">
-        <v>8916.044421525134</v>
+        <v>8916.044421525308</v>
       </c>
       <c r="L6" t="n">
-        <v>-92231.77386743734</v>
+        <v>-92231.77386743751</v>
       </c>
       <c r="M6" t="n">
-        <v>-14366.50446289874</v>
+        <v>-14366.50446289886</v>
       </c>
       <c r="N6" t="n">
-        <v>13945.99691523038</v>
+        <v>13945.99691523026</v>
       </c>
       <c r="O6" t="n">
-        <v>-55716.26102186229</v>
+        <v>-55716.26102186218</v>
       </c>
       <c r="P6" t="n">
-        <v>13041.46806867622</v>
+        <v>13041.46806867604</v>
       </c>
     </row>
   </sheetData>
@@ -26695,16 +26695,16 @@
         <v>194.2115698873897</v>
       </c>
       <c r="F2" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="G2" t="n">
         <v>320.6463427485928</v>
       </c>
       <c r="H2" t="n">
-        <v>320.6463427485927</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="I2" t="n">
-        <v>320.6463427485927</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="J2" t="n">
         <v>212.9205840662826</v>
@@ -26765,19 +26765,19 @@
         <v>103.8244619716956</v>
       </c>
       <c r="L3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716957</v>
       </c>
       <c r="M3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716957</v>
       </c>
       <c r="N3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716957</v>
       </c>
       <c r="O3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716957</v>
       </c>
       <c r="P3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716957</v>
       </c>
     </row>
     <row r="4">
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.7111663740569</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="F4" t="n">
-        <v>122.7111663740569</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="G4" t="n">
-        <v>122.7111663740569</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="H4" t="n">
-        <v>122.7111663740569</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="I4" t="n">
-        <v>122.7111663740569</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="J4" t="n">
-        <v>450.9276226390269</v>
+        <v>450.927622639027</v>
       </c>
       <c r="K4" t="n">
         <v>450.927622639027</v>
@@ -26820,10 +26820,10 @@
         <v>450.927622639027</v>
       </c>
       <c r="M4" t="n">
-        <v>328.2164562649702</v>
+        <v>328.2164562649704</v>
       </c>
       <c r="N4" t="n">
-        <v>328.2164562649702</v>
+        <v>328.2164562649704</v>
       </c>
       <c r="O4" t="n">
         <v>352.065029707075</v>
@@ -26938,13 +26938,13 @@
         <v>126.4347728612031</v>
       </c>
       <c r="M2" t="n">
-        <v>35.39062672266155</v>
+        <v>35.39062672266152</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>78.77318255390284</v>
+        <v>78.77318255390293</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.7111663740569</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>328.2164562649701</v>
+        <v>328.2164562649705</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.84857344210479</v>
+        <v>23.84857344210462</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>122.7111663740569</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28111,28 +28111,28 @@
         <v>194.2115698873897</v>
       </c>
       <c r="J11" t="n">
-        <v>194.2115698873897</v>
+        <v>75.87638612011799</v>
       </c>
       <c r="K11" t="n">
-        <v>5.370482769838603</v>
+        <v>5.370482769838617</v>
       </c>
       <c r="L11" t="n">
-        <v>15.1172700465174</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>44.71928865845108</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.55824001833907</v>
+        <v>136.2694063923957</v>
       </c>
       <c r="Q11" t="n">
-        <v>194.2115698873897</v>
+        <v>160.2335686686701</v>
       </c>
       <c r="R11" t="n">
         <v>194.2115698873897</v>
@@ -28166,10 +28166,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>116.2780987225958</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>64.80698515030906</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28181,7 +28181,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.7388978542471</v>
+        <v>26.02773148019047</v>
       </c>
       <c r="H12" t="n">
         <v>125.6804106468432</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>134.3654897447971</v>
+        <v>73.89309406972781</v>
       </c>
       <c r="S12" t="n">
         <v>191.4847933493538</v>
@@ -28248,22 +28248,22 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
-        <v>166.4571809719723</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="D13" t="n">
+        <v>170.3750166978054</v>
+      </c>
+      <c r="E13" t="n">
         <v>194.2115698873897</v>
       </c>
-      <c r="E13" t="n">
-        <v>141.676141212225</v>
-      </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="G13" t="n">
-        <v>186.1524848494252</v>
+        <v>168.6959906883239</v>
       </c>
       <c r="H13" t="n">
-        <v>165.7818614221724</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="I13" t="n">
         <v>164.7090929584652</v>
@@ -28272,22 +28272,22 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K13" t="n">
-        <v>66.47413857346798</v>
+        <v>189.1853049475246</v>
       </c>
       <c r="L13" t="n">
-        <v>31.44053041360787</v>
+        <v>31.44053041360788</v>
       </c>
       <c r="M13" t="n">
-        <v>24.46691421597135</v>
+        <v>24.46691421597136</v>
       </c>
       <c r="N13" t="n">
-        <v>15.78803834926582</v>
+        <v>15.78803834926583</v>
       </c>
       <c r="O13" t="n">
-        <v>159.5138199599522</v>
+        <v>36.8026535858953</v>
       </c>
       <c r="P13" t="n">
-        <v>180.6111333345275</v>
+        <v>57.89996696047068</v>
       </c>
       <c r="Q13" t="n">
         <v>194.2115698873897</v>
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="C14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="D14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="E14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="F14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="G14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="H14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="I14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="J14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="K14" t="n">
-        <v>5.370482769838603</v>
+        <v>39.79152638454837</v>
       </c>
       <c r="L14" t="n">
-        <v>73.83527824151984</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>39.15968740621531</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>86.34782838981914</v>
       </c>
       <c r="P14" t="n">
-        <v>21.33214637513385</v>
+        <v>13.55824001833908</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.55996792937719</v>
+        <v>88.55996792937721</v>
       </c>
       <c r="R14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="S14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="T14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="U14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="V14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="W14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="X14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="Y14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
     </row>
     <row r="15">
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>54.03932802360887</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
         <v>187.5181515243659</v>
@@ -28424,7 +28424,7 @@
         <v>125.6804106468432</v>
       </c>
       <c r="I15" t="n">
-        <v>107.1669324054735</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.141010788491247</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>134.3654897447971</v>
       </c>
       <c r="S15" t="n">
-        <v>124.8713868857929</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T15" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="U15" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="V15" t="n">
-        <v>194.2115698873896</v>
+        <v>118.1949402437374</v>
       </c>
       <c r="W15" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="X15" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="Y15" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177.6169206649681</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="C16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="D16" t="n">
-        <v>194.2115698873896</v>
+        <v>172.6475689117153</v>
       </c>
       <c r="E16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="F16" t="n">
-        <v>194.2115698873896</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
         <v>168.6959906883239</v>
       </c>
       <c r="H16" t="n">
-        <v>165.7818614221724</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="I16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="J16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="K16" t="n">
-        <v>89.96577530457182</v>
+        <v>66.47413857346798</v>
       </c>
       <c r="L16" t="n">
-        <v>31.44053041360787</v>
+        <v>31.44053041360788</v>
       </c>
       <c r="M16" t="n">
-        <v>24.46691421597135</v>
+        <v>24.46691421597136</v>
       </c>
       <c r="N16" t="n">
-        <v>15.78803834926582</v>
+        <v>138.4992047233224</v>
       </c>
       <c r="O16" t="n">
-        <v>36.80265358589529</v>
+        <v>36.8026535858953</v>
       </c>
       <c r="P16" t="n">
-        <v>57.89996696047066</v>
+        <v>57.89996696047068</v>
       </c>
       <c r="Q16" t="n">
-        <v>194.2115698873896</v>
+        <v>126.8163712014149</v>
       </c>
       <c r="R16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="S16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="T16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="U16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="V16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="W16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="X16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="Y16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
     </row>
     <row r="17">
@@ -28588,7 +28588,7 @@
         <v>75.87638612011799</v>
       </c>
       <c r="K17" t="n">
-        <v>5.370482769838603</v>
+        <v>5.370482769838617</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,16 +28603,16 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.55824001833907</v>
+        <v>13.55824001833908</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.55996792937719</v>
+        <v>88.55996792937721</v>
       </c>
       <c r="R17" t="n">
-        <v>264.5918209651449</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="S17" t="n">
-        <v>227.2739512919082</v>
+        <v>297.6542023696624</v>
       </c>
       <c r="T17" t="n">
         <v>320.6463427485928</v>
@@ -28640,16 +28640,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>54.03932802360914</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>64.80698515030933</v>
       </c>
       <c r="D18" t="n">
-        <v>36.46114870252168</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>49.11640546574309</v>
       </c>
       <c r="F18" t="n">
         <v>158.8234391199283</v>
@@ -28685,22 +28685,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.141010788491247</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>134.3654897447971</v>
       </c>
       <c r="S18" t="n">
-        <v>135.3368179102831</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T18" t="n">
-        <v>92.23675554665708</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2276940613373</v>
+        <v>187.220729410758</v>
       </c>
       <c r="V18" t="n">
-        <v>117.9377545413454</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -28749,19 +28749,19 @@
         <v>66.47413857346798</v>
       </c>
       <c r="L19" t="n">
-        <v>31.44053041360787</v>
+        <v>31.44053041360788</v>
       </c>
       <c r="M19" t="n">
-        <v>24.46691421597135</v>
+        <v>24.46691421597136</v>
       </c>
       <c r="N19" t="n">
-        <v>15.78803834926582</v>
+        <v>15.78803834926583</v>
       </c>
       <c r="O19" t="n">
-        <v>36.80265358589529</v>
+        <v>36.8026535858953</v>
       </c>
       <c r="P19" t="n">
-        <v>57.89996696047066</v>
+        <v>57.89996696047068</v>
       </c>
       <c r="Q19" t="n">
         <v>126.8163712014149</v>
@@ -28798,34 +28798,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>320.6463427485927</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="C20" t="n">
-        <v>320.6463427485927</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="D20" t="n">
-        <v>320.6463427485927</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="E20" t="n">
-        <v>320.6463427485927</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="F20" t="n">
-        <v>320.6463427485927</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="G20" t="n">
-        <v>320.6463427485927</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="H20" t="n">
-        <v>320.6463427485927</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="I20" t="n">
-        <v>320.6463427485927</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="J20" t="n">
         <v>75.87638612011799</v>
       </c>
       <c r="K20" t="n">
-        <v>5.370482769838603</v>
+        <v>5.370482769838617</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,34 +28840,34 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>13.55824001833907</v>
+        <v>13.55824001833908</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.55996792937719</v>
+        <v>88.55996792937721</v>
       </c>
       <c r="R20" t="n">
-        <v>316.9227362614465</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="S20" t="n">
-        <v>227.2739512919082</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="T20" t="n">
-        <v>258.7643213485916</v>
+        <v>222.4191925616721</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1496882414672</v>
+        <v>315.8335919457579</v>
       </c>
       <c r="V20" t="n">
-        <v>320.6463427485927</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="W20" t="n">
-        <v>320.6463427485927</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="X20" t="n">
-        <v>320.6463427485927</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="Y20" t="n">
-        <v>320.6463427485927</v>
+        <v>320.6463427485928</v>
       </c>
     </row>
     <row r="21">
@@ -28886,22 +28886,22 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>49.11640546574282</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>36.11227274587148</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
         <v>148.7388978542471</v>
       </c>
       <c r="H21" t="n">
-        <v>125.6804106468432</v>
+        <v>60.12921202768085</v>
       </c>
       <c r="I21" t="n">
-        <v>107.1669324054735</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>51.93601990319847</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,13 +28922,13 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.141010788491247</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>134.3654897447971</v>
+        <v>11.6543233707405</v>
       </c>
       <c r="S21" t="n">
-        <v>68.77362697529696</v>
+        <v>68.77362697529725</v>
       </c>
       <c r="T21" t="n">
         <v>214.947921920714</v>
@@ -28940,7 +28940,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>158.6205882347424</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
@@ -28986,19 +28986,19 @@
         <v>66.47413857346798</v>
       </c>
       <c r="L22" t="n">
-        <v>31.44053041360787</v>
+        <v>31.44053041360788</v>
       </c>
       <c r="M22" t="n">
-        <v>24.46691421597135</v>
+        <v>24.46691421597136</v>
       </c>
       <c r="N22" t="n">
-        <v>15.78803834926582</v>
+        <v>15.78803834926583</v>
       </c>
       <c r="O22" t="n">
-        <v>36.80265358589529</v>
+        <v>36.8026535858953</v>
       </c>
       <c r="P22" t="n">
-        <v>57.89996696047066</v>
+        <v>57.89996696047068</v>
       </c>
       <c r="Q22" t="n">
         <v>126.8163712014149</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>320.6463427485927</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="C23" t="n">
-        <v>320.6463427485927</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="D23" t="n">
-        <v>320.6463427485927</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="E23" t="n">
-        <v>320.6463427485927</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="F23" t="n">
-        <v>320.6463427485927</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="G23" t="n">
-        <v>320.6463427485927</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="H23" t="n">
-        <v>320.6463427485927</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="I23" t="n">
         <v>240.5985821377675</v>
@@ -29062,7 +29062,7 @@
         <v>75.87638612011799</v>
       </c>
       <c r="K23" t="n">
-        <v>5.370482769838603</v>
+        <v>5.370482769838617</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29077,34 +29077,34 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.55824001833907</v>
+        <v>13.55824001833908</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.55996792937719</v>
+        <v>88.55996792937721</v>
       </c>
       <c r="R23" t="n">
-        <v>264.591820965145</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="S23" t="n">
-        <v>227.2739512919082</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="T23" t="n">
-        <v>320.6463427485927</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="U23" t="n">
-        <v>320.6463427485927</v>
+        <v>297.6542023696633</v>
       </c>
       <c r="V23" t="n">
-        <v>320.6463427485927</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="W23" t="n">
-        <v>320.6463427485927</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="X23" t="n">
-        <v>320.6463427485927</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="Y23" t="n">
-        <v>320.6463427485927</v>
+        <v>320.6463427485928</v>
       </c>
     </row>
     <row r="24">
@@ -29120,7 +29120,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>36.46114870252168</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
@@ -29129,16 +29129,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.7388978542471</v>
+        <v>26.02773148019047</v>
       </c>
       <c r="H24" t="n">
-        <v>125.6804106468432</v>
+        <v>69.53243520777269</v>
       </c>
       <c r="I24" t="n">
         <v>107.1669324054735</v>
       </c>
       <c r="J24" t="n">
-        <v>51.93601990319847</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,10 +29159,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.141010788491247</v>
+        <v>6.141010788491254</v>
       </c>
       <c r="R24" t="n">
-        <v>134.3654897447971</v>
+        <v>11.6543233707405</v>
       </c>
       <c r="S24" t="n">
         <v>191.4847933493538</v>
@@ -29171,16 +29171,16 @@
         <v>214.947921920714</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2276940613373</v>
+        <v>114.5165276872807</v>
       </c>
       <c r="V24" t="n">
-        <v>117.9377545413454</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>143.9934172029547</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>109.2289190972014</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29223,19 +29223,19 @@
         <v>66.47413857346798</v>
       </c>
       <c r="L25" t="n">
-        <v>31.44053041360787</v>
+        <v>31.44053041360788</v>
       </c>
       <c r="M25" t="n">
-        <v>24.46691421597135</v>
+        <v>24.46691421597136</v>
       </c>
       <c r="N25" t="n">
-        <v>15.78803834926582</v>
+        <v>15.78803834926583</v>
       </c>
       <c r="O25" t="n">
-        <v>36.80265358589529</v>
+        <v>36.8026535858953</v>
       </c>
       <c r="P25" t="n">
-        <v>57.89996696047066</v>
+        <v>57.89996696047068</v>
       </c>
       <c r="Q25" t="n">
         <v>126.8163712014149</v>
@@ -29351,16 +29351,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>166.6356204715038</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
@@ -29369,13 +29369,13 @@
         <v>148.7388978542471</v>
       </c>
       <c r="H27" t="n">
-        <v>125.6804106468432</v>
+        <v>82.5177033846694</v>
       </c>
       <c r="I27" t="n">
         <v>107.1669324054735</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>51.93601990319847</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.141010788491247</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>134.3654897447971</v>
@@ -29411,16 +29411,16 @@
         <v>212.9205840662826</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="W27" t="n">
         <v>212.9205840662826</v>
       </c>
       <c r="X27" t="n">
-        <v>212.9205840662826</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>212.9205840662826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29430,7 +29430,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>212.9205840662826</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
         <v>166.4571809719723</v>
@@ -29439,19 +29439,19 @@
         <v>212.9205840662826</v>
       </c>
       <c r="E28" t="n">
-        <v>212.9205840662826</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>182.6931466600828</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="H28" t="n">
         <v>165.7818614221724</v>
       </c>
       <c r="I28" t="n">
-        <v>212.9205840662826</v>
+        <v>164.7090929584652</v>
       </c>
       <c r="J28" t="n">
         <v>119.9013618977274</v>
@@ -29460,19 +29460,19 @@
         <v>66.47413857346798</v>
       </c>
       <c r="L28" t="n">
-        <v>31.44053041360787</v>
+        <v>31.44053041360788</v>
       </c>
       <c r="M28" t="n">
-        <v>24.46691421597135</v>
+        <v>148.9990741729609</v>
       </c>
       <c r="N28" t="n">
-        <v>15.78803834926582</v>
+        <v>15.78803834926583</v>
       </c>
       <c r="O28" t="n">
-        <v>36.80265358589529</v>
+        <v>36.8026535858953</v>
       </c>
       <c r="P28" t="n">
-        <v>57.89996696047066</v>
+        <v>57.89996696047068</v>
       </c>
       <c r="Q28" t="n">
         <v>126.8163712014149</v>
@@ -29588,16 +29588,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>61.94273854486498</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
@@ -29633,22 +29633,22 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.141010788491247</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>134.3654897447971</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>191.4847933493538</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>212.9205840662826</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="V30" t="n">
-        <v>122.5238537891345</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="W30" t="n">
         <v>212.9205840662826</v>
@@ -29691,28 +29691,28 @@
         <v>164.7090929584652</v>
       </c>
       <c r="J31" t="n">
-        <v>167.9423791979364</v>
+        <v>119.9013618977274</v>
       </c>
       <c r="K31" t="n">
         <v>66.47413857346798</v>
       </c>
       <c r="L31" t="n">
-        <v>31.44053041360787</v>
+        <v>31.44053041360788</v>
       </c>
       <c r="M31" t="n">
+        <v>24.46691421597136</v>
+      </c>
+      <c r="N31" t="n">
+        <v>15.78803834926583</v>
+      </c>
+      <c r="O31" t="n">
+        <v>36.8026535858953</v>
+      </c>
+      <c r="P31" t="n">
+        <v>208.2904412461232</v>
+      </c>
+      <c r="Q31" t="n">
         <v>212.9205840662826</v>
-      </c>
-      <c r="N31" t="n">
-        <v>15.78803834926582</v>
-      </c>
-      <c r="O31" t="n">
-        <v>36.80265358589529</v>
-      </c>
-      <c r="P31" t="n">
-        <v>57.89996696047066</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>126.8163712014149</v>
       </c>
       <c r="R31" t="n">
         <v>203.2148443806685</v>
@@ -29776,7 +29776,7 @@
         <v>212.9205840662826</v>
       </c>
       <c r="L32" t="n">
-        <v>212.920584066283</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="M32" t="n">
         <v>212.9205840662826</v>
@@ -29788,7 +29788,7 @@
         <v>212.9205840662826</v>
       </c>
       <c r="P32" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="Q32" t="n">
         <v>212.9205840662826</v>
@@ -29831,13 +29831,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>148.7388978542471</v>
@@ -29846,10 +29846,10 @@
         <v>125.6804106468432</v>
       </c>
       <c r="I33" t="n">
-        <v>107.1669324054735</v>
+        <v>39.19739981151785</v>
       </c>
       <c r="J33" t="n">
-        <v>51.93601990319847</v>
+        <v>51.93601990319846</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,10 +29870,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.141010788491247</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>134.3654897447971</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>191.4847933493538</v>
@@ -29888,13 +29888,13 @@
         <v>212.9205840662826</v>
       </c>
       <c r="W33" t="n">
-        <v>212.9205840662826</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>212.9205840662826</v>
       </c>
       <c r="Y33" t="n">
-        <v>68.42670884278058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29910,19 +29910,19 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>178.3864295786922</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>138.9268822184467</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="G34" t="n">
-        <v>168.6959906883239</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="H34" t="n">
-        <v>212.9205840662826</v>
+        <v>188.248300796416</v>
       </c>
       <c r="I34" t="n">
         <v>164.7090929584652</v>
@@ -29931,16 +29931,16 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K34" t="n">
-        <v>212.9205840662826</v>
+        <v>66.47413857346797</v>
       </c>
       <c r="L34" t="n">
-        <v>31.44053041360787</v>
+        <v>31.44053041360786</v>
       </c>
       <c r="M34" t="n">
-        <v>24.46691421597135</v>
+        <v>24.46691421597134</v>
       </c>
       <c r="N34" t="n">
-        <v>15.78803834926582</v>
+        <v>15.78803834926581</v>
       </c>
       <c r="O34" t="n">
         <v>36.80265358589529</v>
@@ -29949,7 +29949,7 @@
         <v>57.89996696047066</v>
       </c>
       <c r="Q34" t="n">
-        <v>126.8163712014149</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="R34" t="n">
         <v>212.9205840662826</v>
@@ -30010,22 +30010,22 @@
         <v>248.3112107889442</v>
       </c>
       <c r="K35" t="n">
+        <v>120.6424176859773</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>248.3112107889442</v>
       </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>244.6649772971286</v>
-      </c>
-      <c r="N35" t="n">
-        <v>145.3259106748277</v>
-      </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="P35" t="n">
-        <v>13.55824001833907</v>
+        <v>13.55824001833905</v>
       </c>
       <c r="Q35" t="n">
         <v>248.3112107889442</v>
@@ -30034,7 +30034,7 @@
         <v>248.3112107889442</v>
       </c>
       <c r="S35" t="n">
-        <v>227.2739512919082</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="T35" t="n">
         <v>248.3112107889442</v>
@@ -30071,7 +30071,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>139.4739728616096</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
@@ -30086,7 +30086,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J36" t="n">
-        <v>51.93601990319847</v>
+        <v>51.93601990319846</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.141010788491247</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R36" t="n">
         <v>134.3654897447971</v>
@@ -30116,13 +30116,13 @@
         <v>191.4847933493538</v>
       </c>
       <c r="T36" t="n">
-        <v>214.947921920714</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>237.2276940613373</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -30131,7 +30131,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>165.3296881611473</v>
       </c>
     </row>
     <row r="37">
@@ -30147,7 +30147,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D37" t="n">
-        <v>216.2426176650518</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E37" t="n">
         <v>141.676141212225</v>
@@ -30165,19 +30165,19 @@
         <v>164.7090929584652</v>
       </c>
       <c r="J37" t="n">
-        <v>119.9013618977274</v>
+        <v>203.9178719696906</v>
       </c>
       <c r="K37" t="n">
-        <v>66.47413857346798</v>
+        <v>66.47413857346797</v>
       </c>
       <c r="L37" t="n">
-        <v>31.44053041360787</v>
+        <v>31.44053041360786</v>
       </c>
       <c r="M37" t="n">
-        <v>24.46691421597135</v>
+        <v>24.46691421597134</v>
       </c>
       <c r="N37" t="n">
-        <v>15.78803834926582</v>
+        <v>15.78803834926581</v>
       </c>
       <c r="O37" t="n">
         <v>36.80265358589529</v>
@@ -30192,7 +30192,7 @@
         <v>203.2148443806685</v>
       </c>
       <c r="S37" t="n">
-        <v>248.3112107889442</v>
+        <v>235.3546681313223</v>
       </c>
       <c r="T37" t="n">
         <v>223.7411167026008</v>
@@ -30247,11 +30247,11 @@
         <v>248.3112107889442</v>
       </c>
       <c r="K38" t="n">
+        <v>5.370482769838588</v>
+      </c>
+      <c r="L38" t="n">
         <v>248.3112107889442</v>
       </c>
-      <c r="L38" t="n">
-        <v>134.2006577043151</v>
-      </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
@@ -30259,10 +30259,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="P38" t="n">
-        <v>248.3112107889442</v>
+        <v>128.8301749344779</v>
       </c>
       <c r="Q38" t="n">
         <v>248.3112107889442</v>
@@ -30302,13 +30302,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
         <v>158.8234391199283</v>
@@ -30323,7 +30323,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J39" t="n">
-        <v>51.93601990319847</v>
+        <v>51.93601990319846</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,13 +30344,13 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.141010788491247</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R39" t="n">
         <v>134.3654897447971</v>
       </c>
       <c r="S39" t="n">
-        <v>191.4847933493538</v>
+        <v>112.0717966746825</v>
       </c>
       <c r="T39" t="n">
         <v>214.947921920714</v>
@@ -30362,10 +30362,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>248.3112107889442</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>33.0704423678674</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -30387,7 +30387,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E40" t="n">
-        <v>141.676141212225</v>
+        <v>168.1309579287108</v>
       </c>
       <c r="F40" t="n">
         <v>138.9268822184467</v>
@@ -30405,22 +30405,22 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K40" t="n">
-        <v>66.47413857346798</v>
+        <v>66.47413857346797</v>
       </c>
       <c r="L40" t="n">
-        <v>31.44053041360787</v>
+        <v>31.44053041360786</v>
       </c>
       <c r="M40" t="n">
-        <v>24.46691421597135</v>
+        <v>24.46691421597134</v>
       </c>
       <c r="N40" t="n">
-        <v>15.78803834926582</v>
+        <v>15.78803834926581</v>
       </c>
       <c r="O40" t="n">
         <v>36.80265358589529</v>
       </c>
       <c r="P40" t="n">
-        <v>141.9164770324337</v>
+        <v>57.89996696047066</v>
       </c>
       <c r="Q40" t="n">
         <v>126.8163712014149</v>
@@ -30444,10 +30444,10 @@
         <v>248.3112107889442</v>
       </c>
       <c r="X40" t="n">
-        <v>221.9194554082425</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="Y40" t="n">
-        <v>217.1412728141684</v>
+        <v>248.3112107889442</v>
       </c>
     </row>
     <row r="41">
@@ -30481,19 +30481,19 @@
         <v>240.5985821377675</v>
       </c>
       <c r="J41" t="n">
-        <v>201.7724340278372</v>
+        <v>75.87638612011797</v>
       </c>
       <c r="K41" t="n">
+        <v>214.4560158370966</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>240.5985821377675</v>
-      </c>
-      <c r="L41" t="n">
-        <v>240.5985821377675</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>240.5985821377675</v>
@@ -30502,7 +30502,7 @@
         <v>240.5985821377675</v>
       </c>
       <c r="Q41" t="n">
-        <v>88.55996792937719</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="R41" t="n">
         <v>240.5985821377675</v>
@@ -30545,22 +30545,22 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7388978542471</v>
+        <v>1.054682757280062</v>
       </c>
       <c r="H42" t="n">
-        <v>125.6804106468432</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>107.1669324054735</v>
       </c>
       <c r="J42" t="n">
-        <v>51.93601990319847</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.141010788491247</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>134.3654897447971</v>
@@ -30590,19 +30590,19 @@
         <v>191.4847933493538</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U42" t="n">
         <v>237.2276940613373</v>
       </c>
       <c r="V42" t="n">
-        <v>240.5985821377675</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>240.5985821377675</v>
       </c>
       <c r="X42" t="n">
-        <v>32.04816962671697</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30621,7 +30621,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D43" t="n">
-        <v>240.5985821377675</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E43" t="n">
         <v>141.676141212225</v>
@@ -30642,16 +30642,16 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K43" t="n">
-        <v>66.47413857346798</v>
+        <v>170.8311142602008</v>
       </c>
       <c r="L43" t="n">
-        <v>31.44053041360787</v>
+        <v>31.44053041360786</v>
       </c>
       <c r="M43" t="n">
-        <v>24.46691421597135</v>
+        <v>24.46691421597134</v>
       </c>
       <c r="N43" t="n">
-        <v>15.78803834926582</v>
+        <v>15.78803834926581</v>
       </c>
       <c r="O43" t="n">
         <v>36.80265358589529</v>
@@ -30666,10 +30666,10 @@
         <v>203.2148443806685</v>
       </c>
       <c r="S43" t="n">
-        <v>240.5985821377675</v>
+        <v>235.3546681313223</v>
       </c>
       <c r="T43" t="n">
-        <v>227.4382464958316</v>
+        <v>223.7411167026008</v>
       </c>
       <c r="U43" t="n">
         <v>240.5985821377675</v>
@@ -30718,13 +30718,13 @@
         <v>240.5985821377675</v>
       </c>
       <c r="J44" t="n">
-        <v>240.5985821377675</v>
+        <v>75.87638612011796</v>
       </c>
       <c r="K44" t="n">
-        <v>240.5985821377675</v>
+        <v>214.4560158370963</v>
       </c>
       <c r="L44" t="n">
-        <v>240.5985821377675</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -30733,10 +30733,10 @@
         <v>240.5985821377675</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="P44" t="n">
-        <v>49.73381981944705</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="Q44" t="n">
         <v>240.5985821377675</v>
@@ -30785,19 +30785,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>148.7388978542471</v>
       </c>
       <c r="H45" t="n">
-        <v>125.6804106468432</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>107.1669324054735</v>
       </c>
       <c r="J45" t="n">
-        <v>51.93601990319847</v>
+        <v>51.93601990319844</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.141010788491247</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>134.3654897447971</v>
@@ -30830,16 +30830,16 @@
         <v>214.947921920714</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2276940613373</v>
+        <v>102.1683060752688</v>
       </c>
       <c r="V45" t="n">
         <v>240.5985821377675</v>
       </c>
       <c r="W45" t="n">
-        <v>109.2555441379965</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30867,34 +30867,34 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.6959906883239</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="H46" t="n">
-        <v>165.7818614221724</v>
+        <v>181.3787802242949</v>
       </c>
       <c r="I46" t="n">
         <v>164.7090929584652</v>
       </c>
       <c r="J46" t="n">
-        <v>224.2583375844602</v>
+        <v>119.9013618977274</v>
       </c>
       <c r="K46" t="n">
-        <v>66.47413857346798</v>
+        <v>66.47413857346797</v>
       </c>
       <c r="L46" t="n">
-        <v>31.44053041360787</v>
+        <v>31.44053041360784</v>
       </c>
       <c r="M46" t="n">
-        <v>24.46691421597135</v>
+        <v>24.46691421597133</v>
       </c>
       <c r="N46" t="n">
-        <v>15.78803834926582</v>
+        <v>15.78803834926579</v>
       </c>
       <c r="O46" t="n">
-        <v>36.80265358589529</v>
+        <v>36.80265358589527</v>
       </c>
       <c r="P46" t="n">
-        <v>57.89996696047066</v>
+        <v>57.89996696047065</v>
       </c>
       <c r="Q46" t="n">
         <v>126.8163712014149</v>
@@ -30906,7 +30906,7 @@
         <v>235.3546681313223</v>
       </c>
       <c r="T46" t="n">
-        <v>223.7411167026008</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="U46" t="n">
         <v>240.5985821377675</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4173847717455098</v>
+        <v>0.4173847717455096</v>
       </c>
       <c r="H11" t="n">
         <v>4.274541793638702</v>
@@ -31759,37 +31759,37 @@
         <v>16.09122641271878</v>
       </c>
       <c r="J11" t="n">
-        <v>35.42501077093549</v>
+        <v>35.42501077093548</v>
       </c>
       <c r="K11" t="n">
-        <v>53.09290815892292</v>
+        <v>53.09290815892291</v>
       </c>
       <c r="L11" t="n">
-        <v>65.86644736722958</v>
+        <v>65.86644736722957</v>
       </c>
       <c r="M11" t="n">
-        <v>73.28911380175879</v>
+        <v>73.28911380175877</v>
       </c>
       <c r="N11" t="n">
-        <v>74.47500828448072</v>
+        <v>74.47500828448071</v>
       </c>
       <c r="O11" t="n">
-        <v>70.3246384604363</v>
+        <v>70.32463846043629</v>
       </c>
       <c r="P11" t="n">
-        <v>60.02045190796903</v>
+        <v>60.02045190796901</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.07285976983295</v>
+        <v>45.07285976983293</v>
       </c>
       <c r="R11" t="n">
-        <v>26.2185461681589</v>
+        <v>26.21854616815889</v>
       </c>
       <c r="S11" t="n">
-        <v>9.511155486150813</v>
+        <v>9.511155486150811</v>
       </c>
       <c r="T11" t="n">
-        <v>1.82710183831597</v>
+        <v>1.827101838315969</v>
       </c>
       <c r="U11" t="n">
         <v>0.03339078173964077</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2233205408447793</v>
+        <v>0.2233205408447792</v>
       </c>
       <c r="H12" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053526</v>
       </c>
       <c r="I12" t="n">
-        <v>7.688887042243498</v>
+        <v>7.688887042243496</v>
       </c>
       <c r="J12" t="n">
         <v>21.09889372954996</v>
       </c>
       <c r="K12" t="n">
-        <v>36.06136996615017</v>
+        <v>36.06136996615016</v>
       </c>
       <c r="L12" t="n">
-        <v>48.48896216895087</v>
+        <v>48.48896216895086</v>
       </c>
       <c r="M12" t="n">
-        <v>56.58433177457411</v>
+        <v>56.5843317745741</v>
       </c>
       <c r="N12" t="n">
-        <v>58.08195066471301</v>
+        <v>58.081950664713</v>
       </c>
       <c r="O12" t="n">
-        <v>53.13363762809974</v>
+        <v>53.13363762809973</v>
       </c>
       <c r="P12" t="n">
-        <v>42.64442854078948</v>
+        <v>42.64442854078947</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.50667114362481</v>
+        <v>28.5066711436248</v>
       </c>
       <c r="R12" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350305</v>
       </c>
       <c r="S12" t="n">
-        <v>4.148081098586139</v>
+        <v>4.148081098586138</v>
       </c>
       <c r="T12" t="n">
-        <v>0.900138495773474</v>
+        <v>0.9001384957734738</v>
       </c>
       <c r="U12" t="n">
         <v>0.01469214084505127</v>
@@ -31914,7 +31914,7 @@
         <v>1.664595472267514</v>
       </c>
       <c r="I13" t="n">
-        <v>5.630349511514249</v>
+        <v>5.630349511514248</v>
       </c>
       <c r="J13" t="n">
         <v>13.23676788121109</v>
@@ -31923,31 +31923,31 @@
         <v>21.75207580325032</v>
       </c>
       <c r="L13" t="n">
-        <v>27.83516805057558</v>
+        <v>27.83516805057557</v>
       </c>
       <c r="M13" t="n">
-        <v>29.34828193078602</v>
+        <v>29.34828193078601</v>
       </c>
       <c r="N13" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310743</v>
       </c>
       <c r="O13" t="n">
-        <v>26.46332352026105</v>
+        <v>26.46332352026104</v>
       </c>
       <c r="P13" t="n">
-        <v>22.64394495199079</v>
+        <v>22.64394495199078</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.67749375772604</v>
+        <v>15.67749375772603</v>
       </c>
       <c r="R13" t="n">
-        <v>8.418291621508301</v>
+        <v>8.418291621508299</v>
       </c>
       <c r="S13" t="n">
-        <v>3.262811370487548</v>
+        <v>3.262811370487547</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7999589692901136</v>
+        <v>0.7999589692901133</v>
       </c>
       <c r="U13" t="n">
         <v>0.0102122421611504</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4173847717455098</v>
+        <v>0.4173847717455096</v>
       </c>
       <c r="H14" t="n">
         <v>4.274541793638702</v>
@@ -31996,37 +31996,37 @@
         <v>16.09122641271878</v>
       </c>
       <c r="J14" t="n">
-        <v>35.42501077093549</v>
+        <v>35.42501077093548</v>
       </c>
       <c r="K14" t="n">
-        <v>53.09290815892292</v>
+        <v>53.09290815892291</v>
       </c>
       <c r="L14" t="n">
-        <v>65.86644736722958</v>
+        <v>65.86644736722957</v>
       </c>
       <c r="M14" t="n">
-        <v>73.28911380175879</v>
+        <v>73.28911380175877</v>
       </c>
       <c r="N14" t="n">
-        <v>74.47500828448072</v>
+        <v>74.47500828448071</v>
       </c>
       <c r="O14" t="n">
-        <v>70.3246384604363</v>
+        <v>70.32463846043629</v>
       </c>
       <c r="P14" t="n">
-        <v>60.02045190796903</v>
+        <v>60.02045190796901</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.07285976983295</v>
+        <v>45.07285976983293</v>
       </c>
       <c r="R14" t="n">
-        <v>26.2185461681589</v>
+        <v>26.21854616815889</v>
       </c>
       <c r="S14" t="n">
-        <v>9.511155486150813</v>
+        <v>9.511155486150811</v>
       </c>
       <c r="T14" t="n">
-        <v>1.82710183831597</v>
+        <v>1.827101838315969</v>
       </c>
       <c r="U14" t="n">
         <v>0.03339078173964077</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2233205408447793</v>
+        <v>0.2233205408447792</v>
       </c>
       <c r="H15" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053526</v>
       </c>
       <c r="I15" t="n">
-        <v>7.688887042243498</v>
+        <v>7.688887042243496</v>
       </c>
       <c r="J15" t="n">
         <v>21.09889372954996</v>
       </c>
       <c r="K15" t="n">
-        <v>36.06136996615017</v>
+        <v>36.06136996615016</v>
       </c>
       <c r="L15" t="n">
-        <v>48.48896216895087</v>
+        <v>48.48896216895086</v>
       </c>
       <c r="M15" t="n">
-        <v>56.58433177457411</v>
+        <v>56.5843317745741</v>
       </c>
       <c r="N15" t="n">
-        <v>58.08195066471301</v>
+        <v>58.081950664713</v>
       </c>
       <c r="O15" t="n">
-        <v>53.13363762809974</v>
+        <v>53.13363762809973</v>
       </c>
       <c r="P15" t="n">
-        <v>42.64442854078948</v>
+        <v>42.64442854078947</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.50667114362481</v>
+        <v>28.5066711436248</v>
       </c>
       <c r="R15" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350305</v>
       </c>
       <c r="S15" t="n">
-        <v>4.148081098586139</v>
+        <v>4.148081098586138</v>
       </c>
       <c r="T15" t="n">
-        <v>0.900138495773474</v>
+        <v>0.9001384957734738</v>
       </c>
       <c r="U15" t="n">
         <v>0.01469214084505127</v>
@@ -32151,7 +32151,7 @@
         <v>1.664595472267514</v>
       </c>
       <c r="I16" t="n">
-        <v>5.630349511514249</v>
+        <v>5.630349511514248</v>
       </c>
       <c r="J16" t="n">
         <v>13.23676788121109</v>
@@ -32160,31 +32160,31 @@
         <v>21.75207580325032</v>
       </c>
       <c r="L16" t="n">
-        <v>27.83516805057558</v>
+        <v>27.83516805057557</v>
       </c>
       <c r="M16" t="n">
-        <v>29.34828193078602</v>
+        <v>29.34828193078601</v>
       </c>
       <c r="N16" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310743</v>
       </c>
       <c r="O16" t="n">
-        <v>26.46332352026105</v>
+        <v>26.46332352026104</v>
       </c>
       <c r="P16" t="n">
-        <v>22.64394495199079</v>
+        <v>22.64394495199078</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.67749375772604</v>
+        <v>15.67749375772603</v>
       </c>
       <c r="R16" t="n">
-        <v>8.418291621508301</v>
+        <v>8.418291621508299</v>
       </c>
       <c r="S16" t="n">
-        <v>3.262811370487548</v>
+        <v>3.262811370487547</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7999589692901136</v>
+        <v>0.7999589692901133</v>
       </c>
       <c r="U16" t="n">
         <v>0.0102122421611504</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4173847717455098</v>
+        <v>0.4173847717455096</v>
       </c>
       <c r="H17" t="n">
         <v>4.274541793638702</v>
@@ -32233,37 +32233,37 @@
         <v>16.09122641271878</v>
       </c>
       <c r="J17" t="n">
-        <v>35.42501077093549</v>
+        <v>35.42501077093548</v>
       </c>
       <c r="K17" t="n">
-        <v>53.09290815892292</v>
+        <v>53.09290815892291</v>
       </c>
       <c r="L17" t="n">
-        <v>65.86644736722958</v>
+        <v>65.86644736722957</v>
       </c>
       <c r="M17" t="n">
-        <v>73.28911380175879</v>
+        <v>73.28911380175877</v>
       </c>
       <c r="N17" t="n">
-        <v>74.47500828448072</v>
+        <v>74.47500828448071</v>
       </c>
       <c r="O17" t="n">
-        <v>70.3246384604363</v>
+        <v>70.32463846043629</v>
       </c>
       <c r="P17" t="n">
-        <v>60.02045190796903</v>
+        <v>60.02045190796901</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.07285976983295</v>
+        <v>45.07285976983293</v>
       </c>
       <c r="R17" t="n">
-        <v>26.2185461681589</v>
+        <v>26.21854616815889</v>
       </c>
       <c r="S17" t="n">
-        <v>9.511155486150813</v>
+        <v>9.511155486150811</v>
       </c>
       <c r="T17" t="n">
-        <v>1.82710183831597</v>
+        <v>1.827101838315969</v>
       </c>
       <c r="U17" t="n">
         <v>0.03339078173964077</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2233205408447793</v>
+        <v>0.2233205408447792</v>
       </c>
       <c r="H18" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053526</v>
       </c>
       <c r="I18" t="n">
-        <v>7.688887042243498</v>
+        <v>7.688887042243496</v>
       </c>
       <c r="J18" t="n">
         <v>21.09889372954996</v>
       </c>
       <c r="K18" t="n">
-        <v>36.06136996615017</v>
+        <v>36.06136996615016</v>
       </c>
       <c r="L18" t="n">
-        <v>48.48896216895087</v>
+        <v>48.48896216895086</v>
       </c>
       <c r="M18" t="n">
-        <v>56.58433177457411</v>
+        <v>56.5843317745741</v>
       </c>
       <c r="N18" t="n">
-        <v>58.08195066471301</v>
+        <v>58.081950664713</v>
       </c>
       <c r="O18" t="n">
-        <v>53.13363762809974</v>
+        <v>53.13363762809973</v>
       </c>
       <c r="P18" t="n">
-        <v>42.64442854078948</v>
+        <v>42.64442854078947</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.50667114362481</v>
+        <v>28.5066711436248</v>
       </c>
       <c r="R18" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350305</v>
       </c>
       <c r="S18" t="n">
-        <v>4.148081098586139</v>
+        <v>4.148081098586138</v>
       </c>
       <c r="T18" t="n">
-        <v>0.900138495773474</v>
+        <v>0.9001384957734738</v>
       </c>
       <c r="U18" t="n">
         <v>0.01469214084505127</v>
@@ -32388,7 +32388,7 @@
         <v>1.664595472267514</v>
       </c>
       <c r="I19" t="n">
-        <v>5.630349511514249</v>
+        <v>5.630349511514248</v>
       </c>
       <c r="J19" t="n">
         <v>13.23676788121109</v>
@@ -32397,31 +32397,31 @@
         <v>21.75207580325032</v>
       </c>
       <c r="L19" t="n">
-        <v>27.83516805057558</v>
+        <v>27.83516805057557</v>
       </c>
       <c r="M19" t="n">
-        <v>29.34828193078602</v>
+        <v>29.34828193078601</v>
       </c>
       <c r="N19" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310743</v>
       </c>
       <c r="O19" t="n">
-        <v>26.46332352026105</v>
+        <v>26.46332352026104</v>
       </c>
       <c r="P19" t="n">
-        <v>22.64394495199079</v>
+        <v>22.64394495199078</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.67749375772604</v>
+        <v>15.67749375772603</v>
       </c>
       <c r="R19" t="n">
-        <v>8.418291621508301</v>
+        <v>8.418291621508299</v>
       </c>
       <c r="S19" t="n">
-        <v>3.262811370487548</v>
+        <v>3.262811370487547</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7999589692901136</v>
+        <v>0.7999589692901133</v>
       </c>
       <c r="U19" t="n">
         <v>0.0102122421611504</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4173847717455098</v>
+        <v>0.4173847717455096</v>
       </c>
       <c r="H20" t="n">
         <v>4.274541793638702</v>
@@ -32470,37 +32470,37 @@
         <v>16.09122641271878</v>
       </c>
       <c r="J20" t="n">
-        <v>35.42501077093549</v>
+        <v>35.42501077093548</v>
       </c>
       <c r="K20" t="n">
-        <v>53.09290815892292</v>
+        <v>53.09290815892291</v>
       </c>
       <c r="L20" t="n">
-        <v>65.86644736722958</v>
+        <v>65.86644736722957</v>
       </c>
       <c r="M20" t="n">
-        <v>73.28911380175879</v>
+        <v>73.28911380175877</v>
       </c>
       <c r="N20" t="n">
-        <v>74.47500828448072</v>
+        <v>74.47500828448071</v>
       </c>
       <c r="O20" t="n">
-        <v>70.3246384604363</v>
+        <v>70.32463846043629</v>
       </c>
       <c r="P20" t="n">
-        <v>60.02045190796903</v>
+        <v>60.02045190796901</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.07285976983295</v>
+        <v>45.07285976983293</v>
       </c>
       <c r="R20" t="n">
-        <v>26.2185461681589</v>
+        <v>26.21854616815889</v>
       </c>
       <c r="S20" t="n">
-        <v>9.511155486150813</v>
+        <v>9.511155486150811</v>
       </c>
       <c r="T20" t="n">
-        <v>1.82710183831597</v>
+        <v>1.827101838315969</v>
       </c>
       <c r="U20" t="n">
         <v>0.03339078173964077</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2233205408447793</v>
+        <v>0.2233205408447792</v>
       </c>
       <c r="H21" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053526</v>
       </c>
       <c r="I21" t="n">
-        <v>7.688887042243498</v>
+        <v>7.688887042243496</v>
       </c>
       <c r="J21" t="n">
         <v>21.09889372954996</v>
       </c>
       <c r="K21" t="n">
-        <v>36.06136996615017</v>
+        <v>36.06136996615016</v>
       </c>
       <c r="L21" t="n">
-        <v>48.48896216895087</v>
+        <v>48.48896216895086</v>
       </c>
       <c r="M21" t="n">
-        <v>56.58433177457411</v>
+        <v>56.5843317745741</v>
       </c>
       <c r="N21" t="n">
-        <v>58.08195066471301</v>
+        <v>58.081950664713</v>
       </c>
       <c r="O21" t="n">
-        <v>53.13363762809974</v>
+        <v>53.13363762809973</v>
       </c>
       <c r="P21" t="n">
-        <v>42.64442854078948</v>
+        <v>42.64442854078947</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.50667114362481</v>
+        <v>28.5066711436248</v>
       </c>
       <c r="R21" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350305</v>
       </c>
       <c r="S21" t="n">
-        <v>4.148081098586139</v>
+        <v>4.148081098586138</v>
       </c>
       <c r="T21" t="n">
-        <v>0.900138495773474</v>
+        <v>0.9001384957734738</v>
       </c>
       <c r="U21" t="n">
         <v>0.01469214084505127</v>
@@ -32625,7 +32625,7 @@
         <v>1.664595472267514</v>
       </c>
       <c r="I22" t="n">
-        <v>5.630349511514249</v>
+        <v>5.630349511514248</v>
       </c>
       <c r="J22" t="n">
         <v>13.23676788121109</v>
@@ -32634,31 +32634,31 @@
         <v>21.75207580325032</v>
       </c>
       <c r="L22" t="n">
-        <v>27.83516805057558</v>
+        <v>27.83516805057557</v>
       </c>
       <c r="M22" t="n">
-        <v>29.34828193078602</v>
+        <v>29.34828193078601</v>
       </c>
       <c r="N22" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310743</v>
       </c>
       <c r="O22" t="n">
-        <v>26.46332352026105</v>
+        <v>26.46332352026104</v>
       </c>
       <c r="P22" t="n">
-        <v>22.64394495199079</v>
+        <v>22.64394495199078</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.67749375772604</v>
+        <v>15.67749375772603</v>
       </c>
       <c r="R22" t="n">
-        <v>8.418291621508301</v>
+        <v>8.418291621508299</v>
       </c>
       <c r="S22" t="n">
-        <v>3.262811370487548</v>
+        <v>3.262811370487547</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7999589692901136</v>
+        <v>0.7999589692901133</v>
       </c>
       <c r="U22" t="n">
         <v>0.0102122421611504</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4173847717455098</v>
+        <v>0.4173847717455096</v>
       </c>
       <c r="H23" t="n">
         <v>4.274541793638702</v>
@@ -32707,37 +32707,37 @@
         <v>16.09122641271878</v>
       </c>
       <c r="J23" t="n">
-        <v>35.42501077093549</v>
+        <v>35.42501077093548</v>
       </c>
       <c r="K23" t="n">
-        <v>53.09290815892292</v>
+        <v>53.09290815892291</v>
       </c>
       <c r="L23" t="n">
-        <v>65.86644736722958</v>
+        <v>65.86644736722957</v>
       </c>
       <c r="M23" t="n">
-        <v>73.28911380175879</v>
+        <v>73.28911380175877</v>
       </c>
       <c r="N23" t="n">
-        <v>74.47500828448072</v>
+        <v>74.47500828448071</v>
       </c>
       <c r="O23" t="n">
-        <v>70.3246384604363</v>
+        <v>70.32463846043629</v>
       </c>
       <c r="P23" t="n">
-        <v>60.02045190796903</v>
+        <v>60.02045190796901</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.07285976983295</v>
+        <v>45.07285976983293</v>
       </c>
       <c r="R23" t="n">
-        <v>26.2185461681589</v>
+        <v>26.21854616815889</v>
       </c>
       <c r="S23" t="n">
-        <v>9.511155486150813</v>
+        <v>9.511155486150811</v>
       </c>
       <c r="T23" t="n">
-        <v>1.82710183831597</v>
+        <v>1.827101838315969</v>
       </c>
       <c r="U23" t="n">
         <v>0.03339078173964077</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2233205408447793</v>
+        <v>0.2233205408447792</v>
       </c>
       <c r="H24" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053526</v>
       </c>
       <c r="I24" t="n">
-        <v>7.688887042243498</v>
+        <v>7.688887042243496</v>
       </c>
       <c r="J24" t="n">
         <v>21.09889372954996</v>
       </c>
       <c r="K24" t="n">
-        <v>36.06136996615017</v>
+        <v>36.06136996615016</v>
       </c>
       <c r="L24" t="n">
-        <v>48.48896216895087</v>
+        <v>48.48896216895086</v>
       </c>
       <c r="M24" t="n">
-        <v>56.58433177457411</v>
+        <v>56.5843317745741</v>
       </c>
       <c r="N24" t="n">
-        <v>58.08195066471301</v>
+        <v>58.081950664713</v>
       </c>
       <c r="O24" t="n">
-        <v>53.13363762809974</v>
+        <v>53.13363762809973</v>
       </c>
       <c r="P24" t="n">
-        <v>42.64442854078948</v>
+        <v>42.64442854078947</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.50667114362481</v>
+        <v>28.5066711436248</v>
       </c>
       <c r="R24" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350305</v>
       </c>
       <c r="S24" t="n">
-        <v>4.148081098586139</v>
+        <v>4.148081098586138</v>
       </c>
       <c r="T24" t="n">
-        <v>0.900138495773474</v>
+        <v>0.9001384957734738</v>
       </c>
       <c r="U24" t="n">
         <v>0.01469214084505127</v>
@@ -32862,7 +32862,7 @@
         <v>1.664595472267514</v>
       </c>
       <c r="I25" t="n">
-        <v>5.630349511514249</v>
+        <v>5.630349511514248</v>
       </c>
       <c r="J25" t="n">
         <v>13.23676788121109</v>
@@ -32871,31 +32871,31 @@
         <v>21.75207580325032</v>
       </c>
       <c r="L25" t="n">
-        <v>27.83516805057558</v>
+        <v>27.83516805057557</v>
       </c>
       <c r="M25" t="n">
-        <v>29.34828193078602</v>
+        <v>29.34828193078601</v>
       </c>
       <c r="N25" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310743</v>
       </c>
       <c r="O25" t="n">
-        <v>26.46332352026105</v>
+        <v>26.46332352026104</v>
       </c>
       <c r="P25" t="n">
-        <v>22.64394495199079</v>
+        <v>22.64394495199078</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.67749375772604</v>
+        <v>15.67749375772603</v>
       </c>
       <c r="R25" t="n">
-        <v>8.418291621508301</v>
+        <v>8.418291621508299</v>
       </c>
       <c r="S25" t="n">
-        <v>3.262811370487548</v>
+        <v>3.262811370487547</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7999589692901136</v>
+        <v>0.7999589692901133</v>
       </c>
       <c r="U25" t="n">
         <v>0.0102122421611504</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4173847717455098</v>
+        <v>0.4173847717455096</v>
       </c>
       <c r="H26" t="n">
         <v>4.274541793638702</v>
@@ -32944,37 +32944,37 @@
         <v>16.09122641271878</v>
       </c>
       <c r="J26" t="n">
-        <v>35.42501077093549</v>
+        <v>35.42501077093548</v>
       </c>
       <c r="K26" t="n">
-        <v>53.09290815892292</v>
+        <v>53.09290815892291</v>
       </c>
       <c r="L26" t="n">
-        <v>65.86644736722958</v>
+        <v>65.86644736722957</v>
       </c>
       <c r="M26" t="n">
-        <v>73.28911380175879</v>
+        <v>73.28911380175877</v>
       </c>
       <c r="N26" t="n">
-        <v>74.47500828448072</v>
+        <v>74.47500828448071</v>
       </c>
       <c r="O26" t="n">
-        <v>70.3246384604363</v>
+        <v>70.32463846043629</v>
       </c>
       <c r="P26" t="n">
-        <v>60.02045190796903</v>
+        <v>60.02045190796901</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.07285976983295</v>
+        <v>45.07285976983293</v>
       </c>
       <c r="R26" t="n">
-        <v>26.2185461681589</v>
+        <v>26.21854616815889</v>
       </c>
       <c r="S26" t="n">
-        <v>9.511155486150813</v>
+        <v>9.511155486150811</v>
       </c>
       <c r="T26" t="n">
-        <v>1.82710183831597</v>
+        <v>1.827101838315969</v>
       </c>
       <c r="U26" t="n">
         <v>0.03339078173964077</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2233205408447793</v>
+        <v>0.2233205408447792</v>
       </c>
       <c r="H27" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053526</v>
       </c>
       <c r="I27" t="n">
-        <v>7.688887042243498</v>
+        <v>7.688887042243496</v>
       </c>
       <c r="J27" t="n">
         <v>21.09889372954996</v>
       </c>
       <c r="K27" t="n">
-        <v>36.06136996615017</v>
+        <v>36.06136996615016</v>
       </c>
       <c r="L27" t="n">
-        <v>48.48896216895087</v>
+        <v>48.48896216895086</v>
       </c>
       <c r="M27" t="n">
-        <v>56.58433177457411</v>
+        <v>56.5843317745741</v>
       </c>
       <c r="N27" t="n">
-        <v>58.08195066471301</v>
+        <v>58.081950664713</v>
       </c>
       <c r="O27" t="n">
-        <v>53.13363762809974</v>
+        <v>53.13363762809973</v>
       </c>
       <c r="P27" t="n">
-        <v>42.64442854078948</v>
+        <v>42.64442854078947</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.50667114362481</v>
+        <v>28.5066711436248</v>
       </c>
       <c r="R27" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350305</v>
       </c>
       <c r="S27" t="n">
-        <v>4.148081098586139</v>
+        <v>4.148081098586138</v>
       </c>
       <c r="T27" t="n">
-        <v>0.900138495773474</v>
+        <v>0.9001384957734738</v>
       </c>
       <c r="U27" t="n">
         <v>0.01469214084505127</v>
@@ -33099,7 +33099,7 @@
         <v>1.664595472267514</v>
       </c>
       <c r="I28" t="n">
-        <v>5.630349511514249</v>
+        <v>5.630349511514248</v>
       </c>
       <c r="J28" t="n">
         <v>13.23676788121109</v>
@@ -33108,31 +33108,31 @@
         <v>21.75207580325032</v>
       </c>
       <c r="L28" t="n">
-        <v>27.83516805057558</v>
+        <v>27.83516805057557</v>
       </c>
       <c r="M28" t="n">
-        <v>29.34828193078602</v>
+        <v>29.34828193078601</v>
       </c>
       <c r="N28" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310743</v>
       </c>
       <c r="O28" t="n">
-        <v>26.46332352026105</v>
+        <v>26.46332352026104</v>
       </c>
       <c r="P28" t="n">
-        <v>22.64394495199079</v>
+        <v>22.64394495199078</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.67749375772604</v>
+        <v>15.67749375772603</v>
       </c>
       <c r="R28" t="n">
-        <v>8.418291621508301</v>
+        <v>8.418291621508299</v>
       </c>
       <c r="S28" t="n">
-        <v>3.262811370487548</v>
+        <v>3.262811370487547</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7999589692901136</v>
+        <v>0.7999589692901133</v>
       </c>
       <c r="U28" t="n">
         <v>0.0102122421611504</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4173847717455098</v>
+        <v>0.4173847717455096</v>
       </c>
       <c r="H29" t="n">
         <v>4.274541793638702</v>
@@ -33181,37 +33181,37 @@
         <v>16.09122641271878</v>
       </c>
       <c r="J29" t="n">
-        <v>35.42501077093549</v>
+        <v>35.42501077093548</v>
       </c>
       <c r="K29" t="n">
-        <v>53.09290815892292</v>
+        <v>53.09290815892291</v>
       </c>
       <c r="L29" t="n">
-        <v>65.86644736722958</v>
+        <v>65.86644736722957</v>
       </c>
       <c r="M29" t="n">
-        <v>73.28911380175879</v>
+        <v>73.28911380175877</v>
       </c>
       <c r="N29" t="n">
-        <v>74.47500828448072</v>
+        <v>74.47500828448071</v>
       </c>
       <c r="O29" t="n">
-        <v>70.3246384604363</v>
+        <v>70.32463846043629</v>
       </c>
       <c r="P29" t="n">
-        <v>60.02045190796903</v>
+        <v>60.02045190796901</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.07285976983295</v>
+        <v>45.07285976983293</v>
       </c>
       <c r="R29" t="n">
-        <v>26.2185461681589</v>
+        <v>26.21854616815889</v>
       </c>
       <c r="S29" t="n">
-        <v>9.511155486150813</v>
+        <v>9.511155486150811</v>
       </c>
       <c r="T29" t="n">
-        <v>1.82710183831597</v>
+        <v>1.827101838315969</v>
       </c>
       <c r="U29" t="n">
         <v>0.03339078173964077</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2233205408447793</v>
+        <v>0.2233205408447792</v>
       </c>
       <c r="H30" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053526</v>
       </c>
       <c r="I30" t="n">
-        <v>7.688887042243498</v>
+        <v>7.688887042243496</v>
       </c>
       <c r="J30" t="n">
         <v>21.09889372954996</v>
       </c>
       <c r="K30" t="n">
-        <v>36.06136996615017</v>
+        <v>36.06136996615016</v>
       </c>
       <c r="L30" t="n">
-        <v>48.48896216895087</v>
+        <v>48.48896216895086</v>
       </c>
       <c r="M30" t="n">
-        <v>56.58433177457411</v>
+        <v>56.5843317745741</v>
       </c>
       <c r="N30" t="n">
-        <v>58.08195066471301</v>
+        <v>58.081950664713</v>
       </c>
       <c r="O30" t="n">
-        <v>53.13363762809974</v>
+        <v>53.13363762809973</v>
       </c>
       <c r="P30" t="n">
-        <v>42.64442854078948</v>
+        <v>42.64442854078947</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.50667114362481</v>
+        <v>28.5066711436248</v>
       </c>
       <c r="R30" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350305</v>
       </c>
       <c r="S30" t="n">
-        <v>4.148081098586139</v>
+        <v>4.148081098586138</v>
       </c>
       <c r="T30" t="n">
-        <v>0.900138495773474</v>
+        <v>0.9001384957734738</v>
       </c>
       <c r="U30" t="n">
         <v>0.01469214084505127</v>
@@ -33336,7 +33336,7 @@
         <v>1.664595472267514</v>
       </c>
       <c r="I31" t="n">
-        <v>5.630349511514249</v>
+        <v>5.630349511514248</v>
       </c>
       <c r="J31" t="n">
         <v>13.23676788121109</v>
@@ -33345,31 +33345,31 @@
         <v>21.75207580325032</v>
       </c>
       <c r="L31" t="n">
-        <v>27.83516805057558</v>
+        <v>27.83516805057557</v>
       </c>
       <c r="M31" t="n">
-        <v>29.34828193078602</v>
+        <v>29.34828193078601</v>
       </c>
       <c r="N31" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310743</v>
       </c>
       <c r="O31" t="n">
-        <v>26.46332352026105</v>
+        <v>26.46332352026104</v>
       </c>
       <c r="P31" t="n">
-        <v>22.64394495199079</v>
+        <v>22.64394495199078</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.67749375772604</v>
+        <v>15.67749375772603</v>
       </c>
       <c r="R31" t="n">
-        <v>8.418291621508301</v>
+        <v>8.418291621508299</v>
       </c>
       <c r="S31" t="n">
-        <v>3.262811370487548</v>
+        <v>3.262811370487547</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7999589692901136</v>
+        <v>0.7999589692901133</v>
       </c>
       <c r="U31" t="n">
         <v>0.0102122421611504</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4173847717455098</v>
+        <v>0.4173847717455099</v>
       </c>
       <c r="H32" t="n">
-        <v>4.274541793638702</v>
+        <v>4.274541793638704</v>
       </c>
       <c r="I32" t="n">
         <v>16.09122641271878</v>
       </c>
       <c r="J32" t="n">
-        <v>35.42501077093549</v>
+        <v>35.4250107709355</v>
       </c>
       <c r="K32" t="n">
-        <v>53.09290815892292</v>
+        <v>53.09290815892294</v>
       </c>
       <c r="L32" t="n">
-        <v>65.86644736722958</v>
+        <v>65.8664473672296</v>
       </c>
       <c r="M32" t="n">
-        <v>73.28911380175879</v>
+        <v>73.28911380175882</v>
       </c>
       <c r="N32" t="n">
-        <v>74.47500828448072</v>
+        <v>74.47500828448075</v>
       </c>
       <c r="O32" t="n">
-        <v>70.3246384604363</v>
+        <v>70.32463846043633</v>
       </c>
       <c r="P32" t="n">
-        <v>60.02045190796903</v>
+        <v>60.02045190796905</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.07285976983295</v>
+        <v>45.07285976983296</v>
       </c>
       <c r="R32" t="n">
-        <v>26.2185461681589</v>
+        <v>26.21854616815891</v>
       </c>
       <c r="S32" t="n">
-        <v>9.511155486150813</v>
+        <v>9.511155486150816</v>
       </c>
       <c r="T32" t="n">
         <v>1.82710183831597</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03339078173964077</v>
+        <v>0.03339078173964078</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,43 +33494,43 @@
         <v>2.156806276053527</v>
       </c>
       <c r="I33" t="n">
-        <v>7.688887042243498</v>
+        <v>7.688887042243501</v>
       </c>
       <c r="J33" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954997</v>
       </c>
       <c r="K33" t="n">
-        <v>36.06136996615017</v>
+        <v>36.06136996615018</v>
       </c>
       <c r="L33" t="n">
-        <v>48.48896216895087</v>
+        <v>48.48896216895088</v>
       </c>
       <c r="M33" t="n">
-        <v>56.58433177457411</v>
+        <v>56.58433177457412</v>
       </c>
       <c r="N33" t="n">
-        <v>58.08195066471301</v>
+        <v>58.08195066471303</v>
       </c>
       <c r="O33" t="n">
-        <v>53.13363762809974</v>
+        <v>53.13363762809976</v>
       </c>
       <c r="P33" t="n">
-        <v>42.64442854078948</v>
+        <v>42.64442854078949</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.50667114362481</v>
+        <v>28.50667114362482</v>
       </c>
       <c r="R33" t="n">
         <v>13.86546305350306</v>
       </c>
       <c r="S33" t="n">
-        <v>4.148081098586139</v>
+        <v>4.14808109858614</v>
       </c>
       <c r="T33" t="n">
-        <v>0.900138495773474</v>
+        <v>0.9001384957734743</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01469214084505127</v>
+        <v>0.01469214084505128</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,31 +33567,31 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1872244396210904</v>
+        <v>0.1872244396210905</v>
       </c>
       <c r="H34" t="n">
-        <v>1.664595472267514</v>
+        <v>1.664595472267515</v>
       </c>
       <c r="I34" t="n">
-        <v>5.630349511514249</v>
+        <v>5.63034951151425</v>
       </c>
       <c r="J34" t="n">
-        <v>13.23676788121109</v>
+        <v>13.2367678812111</v>
       </c>
       <c r="K34" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325033</v>
       </c>
       <c r="L34" t="n">
-        <v>27.83516805057558</v>
+        <v>27.83516805057559</v>
       </c>
       <c r="M34" t="n">
-        <v>29.34828193078602</v>
+        <v>29.34828193078603</v>
       </c>
       <c r="N34" t="n">
         <v>28.65044538310744</v>
       </c>
       <c r="O34" t="n">
-        <v>26.46332352026105</v>
+        <v>26.46332352026106</v>
       </c>
       <c r="P34" t="n">
         <v>22.64394495199079</v>
@@ -33600,13 +33600,13 @@
         <v>15.67749375772604</v>
       </c>
       <c r="R34" t="n">
-        <v>8.418291621508301</v>
+        <v>8.418291621508304</v>
       </c>
       <c r="S34" t="n">
-        <v>3.262811370487548</v>
+        <v>3.262811370487549</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7999589692901136</v>
+        <v>0.7999589692901138</v>
       </c>
       <c r="U34" t="n">
         <v>0.0102122421611504</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4173847717455098</v>
+        <v>0.4173847717455099</v>
       </c>
       <c r="H35" t="n">
-        <v>4.274541793638702</v>
+        <v>4.274541793638704</v>
       </c>
       <c r="I35" t="n">
         <v>16.09122641271878</v>
       </c>
       <c r="J35" t="n">
-        <v>35.42501077093549</v>
+        <v>35.4250107709355</v>
       </c>
       <c r="K35" t="n">
-        <v>53.09290815892292</v>
+        <v>53.09290815892294</v>
       </c>
       <c r="L35" t="n">
-        <v>65.86644736722958</v>
+        <v>65.8664473672296</v>
       </c>
       <c r="M35" t="n">
-        <v>73.28911380175879</v>
+        <v>73.28911380175882</v>
       </c>
       <c r="N35" t="n">
-        <v>74.47500828448072</v>
+        <v>74.47500828448075</v>
       </c>
       <c r="O35" t="n">
-        <v>70.3246384604363</v>
+        <v>70.32463846043633</v>
       </c>
       <c r="P35" t="n">
-        <v>60.02045190796903</v>
+        <v>60.02045190796905</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.07285976983295</v>
+        <v>45.07285976983296</v>
       </c>
       <c r="R35" t="n">
-        <v>26.2185461681589</v>
+        <v>26.21854616815891</v>
       </c>
       <c r="S35" t="n">
-        <v>9.511155486150813</v>
+        <v>9.511155486150816</v>
       </c>
       <c r="T35" t="n">
         <v>1.82710183831597</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03339078173964077</v>
+        <v>0.03339078173964078</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,43 +33731,43 @@
         <v>2.156806276053527</v>
       </c>
       <c r="I36" t="n">
-        <v>7.688887042243498</v>
+        <v>7.688887042243501</v>
       </c>
       <c r="J36" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954997</v>
       </c>
       <c r="K36" t="n">
-        <v>36.06136996615017</v>
+        <v>36.06136996615018</v>
       </c>
       <c r="L36" t="n">
-        <v>48.48896216895087</v>
+        <v>48.48896216895088</v>
       </c>
       <c r="M36" t="n">
-        <v>56.58433177457411</v>
+        <v>56.58433177457412</v>
       </c>
       <c r="N36" t="n">
-        <v>58.08195066471301</v>
+        <v>58.08195066471303</v>
       </c>
       <c r="O36" t="n">
-        <v>53.13363762809974</v>
+        <v>53.13363762809976</v>
       </c>
       <c r="P36" t="n">
-        <v>42.64442854078948</v>
+        <v>42.64442854078949</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.50667114362481</v>
+        <v>28.50667114362482</v>
       </c>
       <c r="R36" t="n">
         <v>13.86546305350306</v>
       </c>
       <c r="S36" t="n">
-        <v>4.148081098586139</v>
+        <v>4.14808109858614</v>
       </c>
       <c r="T36" t="n">
-        <v>0.900138495773474</v>
+        <v>0.9001384957734743</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01469214084505127</v>
+        <v>0.01469214084505128</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,31 +33804,31 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1872244396210904</v>
+        <v>0.1872244396210905</v>
       </c>
       <c r="H37" t="n">
-        <v>1.664595472267514</v>
+        <v>1.664595472267515</v>
       </c>
       <c r="I37" t="n">
-        <v>5.630349511514249</v>
+        <v>5.63034951151425</v>
       </c>
       <c r="J37" t="n">
-        <v>13.23676788121109</v>
+        <v>13.2367678812111</v>
       </c>
       <c r="K37" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325033</v>
       </c>
       <c r="L37" t="n">
-        <v>27.83516805057558</v>
+        <v>27.83516805057559</v>
       </c>
       <c r="M37" t="n">
-        <v>29.34828193078602</v>
+        <v>29.34828193078603</v>
       </c>
       <c r="N37" t="n">
         <v>28.65044538310744</v>
       </c>
       <c r="O37" t="n">
-        <v>26.46332352026105</v>
+        <v>26.46332352026106</v>
       </c>
       <c r="P37" t="n">
         <v>22.64394495199079</v>
@@ -33837,13 +33837,13 @@
         <v>15.67749375772604</v>
       </c>
       <c r="R37" t="n">
-        <v>8.418291621508301</v>
+        <v>8.418291621508304</v>
       </c>
       <c r="S37" t="n">
-        <v>3.262811370487548</v>
+        <v>3.262811370487549</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7999589692901136</v>
+        <v>0.7999589692901138</v>
       </c>
       <c r="U37" t="n">
         <v>0.0102122421611504</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4173847717455098</v>
+        <v>0.4173847717455099</v>
       </c>
       <c r="H38" t="n">
-        <v>4.274541793638702</v>
+        <v>4.274541793638704</v>
       </c>
       <c r="I38" t="n">
         <v>16.09122641271878</v>
       </c>
       <c r="J38" t="n">
-        <v>35.42501077093549</v>
+        <v>35.4250107709355</v>
       </c>
       <c r="K38" t="n">
-        <v>53.09290815892292</v>
+        <v>53.09290815892294</v>
       </c>
       <c r="L38" t="n">
-        <v>65.86644736722958</v>
+        <v>65.8664473672296</v>
       </c>
       <c r="M38" t="n">
-        <v>73.28911380175879</v>
+        <v>73.28911380175882</v>
       </c>
       <c r="N38" t="n">
-        <v>74.47500828448072</v>
+        <v>74.47500828448075</v>
       </c>
       <c r="O38" t="n">
-        <v>70.3246384604363</v>
+        <v>70.32463846043633</v>
       </c>
       <c r="P38" t="n">
-        <v>60.02045190796903</v>
+        <v>60.02045190796905</v>
       </c>
       <c r="Q38" t="n">
-        <v>45.07285976983295</v>
+        <v>45.07285976983296</v>
       </c>
       <c r="R38" t="n">
-        <v>26.2185461681589</v>
+        <v>26.21854616815891</v>
       </c>
       <c r="S38" t="n">
-        <v>9.511155486150813</v>
+        <v>9.511155486150816</v>
       </c>
       <c r="T38" t="n">
         <v>1.82710183831597</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03339078173964077</v>
+        <v>0.03339078173964078</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,43 +33968,43 @@
         <v>2.156806276053527</v>
       </c>
       <c r="I39" t="n">
-        <v>7.688887042243498</v>
+        <v>7.688887042243501</v>
       </c>
       <c r="J39" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954997</v>
       </c>
       <c r="K39" t="n">
-        <v>36.06136996615017</v>
+        <v>36.06136996615018</v>
       </c>
       <c r="L39" t="n">
-        <v>48.48896216895087</v>
+        <v>48.48896216895088</v>
       </c>
       <c r="M39" t="n">
-        <v>56.58433177457411</v>
+        <v>56.58433177457412</v>
       </c>
       <c r="N39" t="n">
-        <v>58.08195066471301</v>
+        <v>58.08195066471303</v>
       </c>
       <c r="O39" t="n">
-        <v>53.13363762809974</v>
+        <v>53.13363762809976</v>
       </c>
       <c r="P39" t="n">
-        <v>42.64442854078948</v>
+        <v>42.64442854078949</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.50667114362481</v>
+        <v>28.50667114362482</v>
       </c>
       <c r="R39" t="n">
         <v>13.86546305350306</v>
       </c>
       <c r="S39" t="n">
-        <v>4.148081098586139</v>
+        <v>4.14808109858614</v>
       </c>
       <c r="T39" t="n">
-        <v>0.900138495773474</v>
+        <v>0.9001384957734743</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01469214084505127</v>
+        <v>0.01469214084505128</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,31 +34041,31 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1872244396210904</v>
+        <v>0.1872244396210905</v>
       </c>
       <c r="H40" t="n">
-        <v>1.664595472267514</v>
+        <v>1.664595472267515</v>
       </c>
       <c r="I40" t="n">
-        <v>5.630349511514249</v>
+        <v>5.63034951151425</v>
       </c>
       <c r="J40" t="n">
-        <v>13.23676788121109</v>
+        <v>13.2367678812111</v>
       </c>
       <c r="K40" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325033</v>
       </c>
       <c r="L40" t="n">
-        <v>27.83516805057558</v>
+        <v>27.83516805057559</v>
       </c>
       <c r="M40" t="n">
-        <v>29.34828193078602</v>
+        <v>29.34828193078603</v>
       </c>
       <c r="N40" t="n">
         <v>28.65044538310744</v>
       </c>
       <c r="O40" t="n">
-        <v>26.46332352026105</v>
+        <v>26.46332352026106</v>
       </c>
       <c r="P40" t="n">
         <v>22.64394495199079</v>
@@ -34074,13 +34074,13 @@
         <v>15.67749375772604</v>
       </c>
       <c r="R40" t="n">
-        <v>8.418291621508301</v>
+        <v>8.418291621508304</v>
       </c>
       <c r="S40" t="n">
-        <v>3.262811370487548</v>
+        <v>3.262811370487549</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7999589692901136</v>
+        <v>0.7999589692901138</v>
       </c>
       <c r="U40" t="n">
         <v>0.0102122421611504</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4173847717455098</v>
+        <v>0.4173847717455099</v>
       </c>
       <c r="H41" t="n">
-        <v>4.274541793638702</v>
+        <v>4.274541793638704</v>
       </c>
       <c r="I41" t="n">
         <v>16.09122641271878</v>
       </c>
       <c r="J41" t="n">
-        <v>35.42501077093549</v>
+        <v>35.4250107709355</v>
       </c>
       <c r="K41" t="n">
-        <v>53.09290815892292</v>
+        <v>53.09290815892294</v>
       </c>
       <c r="L41" t="n">
-        <v>65.86644736722958</v>
+        <v>65.8664473672296</v>
       </c>
       <c r="M41" t="n">
-        <v>73.28911380175879</v>
+        <v>73.28911380175882</v>
       </c>
       <c r="N41" t="n">
-        <v>74.47500828448072</v>
+        <v>74.47500828448075</v>
       </c>
       <c r="O41" t="n">
-        <v>70.3246384604363</v>
+        <v>70.32463846043633</v>
       </c>
       <c r="P41" t="n">
-        <v>60.02045190796903</v>
+        <v>60.02045190796905</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.07285976983295</v>
+        <v>45.07285976983296</v>
       </c>
       <c r="R41" t="n">
-        <v>26.2185461681589</v>
+        <v>26.21854616815891</v>
       </c>
       <c r="S41" t="n">
-        <v>9.511155486150813</v>
+        <v>9.511155486150816</v>
       </c>
       <c r="T41" t="n">
         <v>1.82710183831597</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03339078173964077</v>
+        <v>0.03339078173964078</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,43 +34205,43 @@
         <v>2.156806276053527</v>
       </c>
       <c r="I42" t="n">
-        <v>7.688887042243498</v>
+        <v>7.688887042243501</v>
       </c>
       <c r="J42" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954997</v>
       </c>
       <c r="K42" t="n">
-        <v>36.06136996615017</v>
+        <v>36.06136996615018</v>
       </c>
       <c r="L42" t="n">
-        <v>48.48896216895087</v>
+        <v>48.48896216895088</v>
       </c>
       <c r="M42" t="n">
-        <v>56.58433177457411</v>
+        <v>56.58433177457412</v>
       </c>
       <c r="N42" t="n">
-        <v>58.08195066471301</v>
+        <v>58.08195066471303</v>
       </c>
       <c r="O42" t="n">
-        <v>53.13363762809974</v>
+        <v>53.13363762809976</v>
       </c>
       <c r="P42" t="n">
-        <v>42.64442854078948</v>
+        <v>42.64442854078949</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.50667114362481</v>
+        <v>28.50667114362482</v>
       </c>
       <c r="R42" t="n">
         <v>13.86546305350306</v>
       </c>
       <c r="S42" t="n">
-        <v>4.148081098586139</v>
+        <v>4.14808109858614</v>
       </c>
       <c r="T42" t="n">
-        <v>0.900138495773474</v>
+        <v>0.9001384957734743</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01469214084505127</v>
+        <v>0.01469214084505128</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,31 +34278,31 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1872244396210904</v>
+        <v>0.1872244396210905</v>
       </c>
       <c r="H43" t="n">
-        <v>1.664595472267514</v>
+        <v>1.664595472267515</v>
       </c>
       <c r="I43" t="n">
-        <v>5.630349511514249</v>
+        <v>5.63034951151425</v>
       </c>
       <c r="J43" t="n">
-        <v>13.23676788121109</v>
+        <v>13.2367678812111</v>
       </c>
       <c r="K43" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325033</v>
       </c>
       <c r="L43" t="n">
-        <v>27.83516805057558</v>
+        <v>27.83516805057559</v>
       </c>
       <c r="M43" t="n">
-        <v>29.34828193078602</v>
+        <v>29.34828193078603</v>
       </c>
       <c r="N43" t="n">
         <v>28.65044538310744</v>
       </c>
       <c r="O43" t="n">
-        <v>26.46332352026105</v>
+        <v>26.46332352026106</v>
       </c>
       <c r="P43" t="n">
         <v>22.64394495199079</v>
@@ -34311,13 +34311,13 @@
         <v>15.67749375772604</v>
       </c>
       <c r="R43" t="n">
-        <v>8.418291621508301</v>
+        <v>8.418291621508304</v>
       </c>
       <c r="S43" t="n">
-        <v>3.262811370487548</v>
+        <v>3.262811370487549</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7999589692901136</v>
+        <v>0.7999589692901138</v>
       </c>
       <c r="U43" t="n">
         <v>0.0102122421611504</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4173847717455098</v>
+        <v>0.4173847717455101</v>
       </c>
       <c r="H44" t="n">
-        <v>4.274541793638702</v>
+        <v>4.274541793638707</v>
       </c>
       <c r="I44" t="n">
-        <v>16.09122641271878</v>
+        <v>16.0912264127188</v>
       </c>
       <c r="J44" t="n">
-        <v>35.42501077093549</v>
+        <v>35.42501077093552</v>
       </c>
       <c r="K44" t="n">
-        <v>53.09290815892292</v>
+        <v>53.09290815892298</v>
       </c>
       <c r="L44" t="n">
-        <v>65.86644736722958</v>
+        <v>65.86644736722965</v>
       </c>
       <c r="M44" t="n">
-        <v>73.28911380175879</v>
+        <v>73.28911380175886</v>
       </c>
       <c r="N44" t="n">
-        <v>74.47500828448072</v>
+        <v>74.47500828448079</v>
       </c>
       <c r="O44" t="n">
-        <v>70.3246384604363</v>
+        <v>70.32463846043638</v>
       </c>
       <c r="P44" t="n">
-        <v>60.02045190796903</v>
+        <v>60.02045190796908</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.07285976983295</v>
+        <v>45.07285976983299</v>
       </c>
       <c r="R44" t="n">
-        <v>26.2185461681589</v>
+        <v>26.21854616815892</v>
       </c>
       <c r="S44" t="n">
-        <v>9.511155486150813</v>
+        <v>9.511155486150821</v>
       </c>
       <c r="T44" t="n">
-        <v>1.82710183831597</v>
+        <v>1.827101838315972</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03339078173964077</v>
+        <v>0.0333907817396408</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2233205408447793</v>
+        <v>0.2233205408447795</v>
       </c>
       <c r="H45" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053528</v>
       </c>
       <c r="I45" t="n">
-        <v>7.688887042243498</v>
+        <v>7.688887042243506</v>
       </c>
       <c r="J45" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954998</v>
       </c>
       <c r="K45" t="n">
-        <v>36.06136996615017</v>
+        <v>36.06136996615021</v>
       </c>
       <c r="L45" t="n">
-        <v>48.48896216895087</v>
+        <v>48.48896216895092</v>
       </c>
       <c r="M45" t="n">
-        <v>56.58433177457411</v>
+        <v>56.58433177457416</v>
       </c>
       <c r="N45" t="n">
-        <v>58.08195066471301</v>
+        <v>58.08195066471307</v>
       </c>
       <c r="O45" t="n">
-        <v>53.13363762809974</v>
+        <v>53.13363762809979</v>
       </c>
       <c r="P45" t="n">
-        <v>42.64442854078948</v>
+        <v>42.64442854078952</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.50667114362481</v>
+        <v>28.50667114362484</v>
       </c>
       <c r="R45" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350307</v>
       </c>
       <c r="S45" t="n">
-        <v>4.148081098586139</v>
+        <v>4.148081098586142</v>
       </c>
       <c r="T45" t="n">
-        <v>0.900138495773474</v>
+        <v>0.9001384957734749</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01469214084505127</v>
+        <v>0.01469214084505129</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1872244396210904</v>
+        <v>0.1872244396210906</v>
       </c>
       <c r="H46" t="n">
-        <v>1.664595472267514</v>
+        <v>1.664595472267516</v>
       </c>
       <c r="I46" t="n">
-        <v>5.630349511514249</v>
+        <v>5.630349511514255</v>
       </c>
       <c r="J46" t="n">
-        <v>13.23676788121109</v>
+        <v>13.23676788121111</v>
       </c>
       <c r="K46" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325034</v>
       </c>
       <c r="L46" t="n">
-        <v>27.83516805057558</v>
+        <v>27.83516805057561</v>
       </c>
       <c r="M46" t="n">
-        <v>29.34828193078602</v>
+        <v>29.34828193078605</v>
       </c>
       <c r="N46" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310746</v>
       </c>
       <c r="O46" t="n">
-        <v>26.46332352026105</v>
+        <v>26.46332352026107</v>
       </c>
       <c r="P46" t="n">
-        <v>22.64394495199079</v>
+        <v>22.64394495199081</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.67749375772604</v>
+        <v>15.67749375772605</v>
       </c>
       <c r="R46" t="n">
-        <v>8.418291621508301</v>
+        <v>8.41829162150831</v>
       </c>
       <c r="S46" t="n">
-        <v>3.262811370487548</v>
+        <v>3.262811370487551</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7999589692901136</v>
+        <v>0.7999589692901143</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0102122421611504</v>
+        <v>0.01021224216115041</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>118.3351837672717</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>63.99315817905441</v>
+        <v>48.875888132537</v>
       </c>
       <c r="M11" t="n">
-        <v>83.55147896784155</v>
+        <v>83.55147896784153</v>
       </c>
       <c r="N11" t="n">
-        <v>77.99187771560553</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="O11" t="n">
-        <v>36.36333798423748</v>
+        <v>36.36333798423746</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="Q11" t="n">
-        <v>105.6516019580125</v>
+        <v>71.67360073929287</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.26828800158318</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>119.7571625941459</v>
       </c>
       <c r="M12" t="n">
-        <v>118.5904960282513</v>
+        <v>120.707143229763</v>
       </c>
       <c r="N12" t="n">
-        <v>122.7111663740569</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="P12" t="n">
-        <v>85.55952557398587</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35544,22 +35544,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>27.75438891541734</v>
       </c>
       <c r="D13" t="n">
-        <v>49.02891963667895</v>
+        <v>25.19236644709475</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>52.5354286751647</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>55.28468766894304</v>
       </c>
       <c r="G13" t="n">
-        <v>17.45649416110136</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>28.42970846521732</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -35580,13 +35580,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>122.7111663740569</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>122.7111663740569</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.39519868597472</v>
+        <v>67.39519868597475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>118.3351837672716</v>
+        <v>118.3351837672717</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>34.42104361470975</v>
       </c>
       <c r="L14" t="n">
-        <v>122.7111663740569</v>
+        <v>48.875888132537</v>
       </c>
       <c r="M14" t="n">
-        <v>122.7111663740569</v>
+        <v>83.55147896784153</v>
       </c>
       <c r="N14" t="n">
-        <v>77.99187771560553</v>
+        <v>77.99187771560551</v>
       </c>
       <c r="O14" t="n">
-        <v>36.36333798423748</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="P14" t="n">
-        <v>7.773906356794783</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35732,13 +35732,13 @@
         <v>119.7571625941459</v>
       </c>
       <c r="M15" t="n">
-        <v>122.7111663740569</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="N15" t="n">
-        <v>35.14761765577762</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="O15" t="n">
-        <v>122.7111663740569</v>
+        <v>35.1476176557771</v>
       </c>
       <c r="P15" t="n">
         <v>85.55952557398587</v>
@@ -35778,34 +35778,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>16.59464922242157</v>
       </c>
       <c r="C16" t="n">
-        <v>27.75438891541728</v>
+        <v>27.75438891541731</v>
       </c>
       <c r="D16" t="n">
-        <v>49.02891963667892</v>
+        <v>27.46491866100456</v>
       </c>
       <c r="E16" t="n">
-        <v>52.53542867516464</v>
+        <v>52.53542867516467</v>
       </c>
       <c r="F16" t="n">
-        <v>55.28468766894298</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>28.4297084652173</v>
       </c>
       <c r="I16" t="n">
-        <v>29.50247692892446</v>
+        <v>29.50247692892449</v>
       </c>
       <c r="J16" t="n">
-        <v>74.3102079896622</v>
+        <v>74.31020798966223</v>
       </c>
       <c r="K16" t="n">
-        <v>23.49163673110383</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -35814,7 +35814,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.39519868597469</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,16 +35887,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>48.87588813253701</v>
+        <v>48.875888132537</v>
       </c>
       <c r="M17" t="n">
-        <v>83.55147896784155</v>
+        <v>83.55147896784153</v>
       </c>
       <c r="N17" t="n">
-        <v>77.99187771560553</v>
+        <v>77.99187771560551</v>
       </c>
       <c r="O17" t="n">
-        <v>36.36333798423748</v>
+        <v>36.36333798423746</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35905,10 +35905,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>70.38025107775526</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>70.38025107775424</v>
       </c>
       <c r="T17" t="n">
         <v>98.22715018692068</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>39.26828800158317</v>
       </c>
       <c r="L18" t="n">
         <v>119.7571625941459</v>
       </c>
       <c r="M18" t="n">
-        <v>122.7111663740569</v>
+        <v>81.43885522817988</v>
       </c>
       <c r="N18" t="n">
-        <v>35.14761765577762</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="O18" t="n">
-        <v>122.7111663740569</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="P18" t="n">
-        <v>85.55952557398587</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>80.04776061082518</v>
+        <v>80.04776061082524</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36124,16 +36124,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>48.87588813253701</v>
+        <v>48.875888132537</v>
       </c>
       <c r="M20" t="n">
-        <v>83.55147896784155</v>
+        <v>83.55147896784153</v>
       </c>
       <c r="N20" t="n">
-        <v>77.99187771560553</v>
+        <v>77.99187771560551</v>
       </c>
       <c r="O20" t="n">
-        <v>36.36333798423748</v>
+        <v>36.36333798423746</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36142,16 +36142,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>122.7111663740569</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>93.37239145668457</v>
       </c>
       <c r="T20" t="n">
-        <v>36.3451287869195</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>65.68390370429069</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>119.7571625941459</v>
+        <v>117.7531394498523</v>
       </c>
       <c r="M21" t="n">
-        <v>35.14761765577762</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="N21" t="n">
-        <v>122.7111663740569</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="O21" t="n">
-        <v>122.7111663740569</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="P21" t="n">
-        <v>85.55952557398587</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36361,16 +36361,16 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>48.87588813253701</v>
+        <v>48.875888132537</v>
       </c>
       <c r="M23" t="n">
-        <v>83.55147896784155</v>
+        <v>83.55147896784153</v>
       </c>
       <c r="N23" t="n">
-        <v>77.99187771560553</v>
+        <v>77.99187771560551</v>
       </c>
       <c r="O23" t="n">
-        <v>36.36333798423748</v>
+        <v>36.36333798423746</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36379,16 +36379,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>70.38025107775537</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>93.37239145668457</v>
       </c>
       <c r="T23" t="n">
-        <v>98.22715018692062</v>
+        <v>98.22715018692068</v>
       </c>
       <c r="U23" t="n">
-        <v>70.49665450712554</v>
+        <v>47.50451412819616</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36443,13 +36443,13 @@
         <v>119.7571625941459</v>
       </c>
       <c r="M24" t="n">
-        <v>35.14761765577762</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="N24" t="n">
-        <v>122.7111663740569</v>
+        <v>35.1476176557771</v>
       </c>
       <c r="O24" t="n">
-        <v>122.7111663740569</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="P24" t="n">
         <v>85.55952557398587</v>
@@ -36604,7 +36604,7 @@
         <v>296.4720630341242</v>
       </c>
       <c r="N26" t="n">
-        <v>290.9124617818881</v>
+        <v>290.9124617818882</v>
       </c>
       <c r="O26" t="n">
         <v>249.2839220505201</v>
@@ -36616,7 +36616,7 @@
         <v>124.3606161369054</v>
       </c>
       <c r="R26" t="n">
-        <v>18.70901417889295</v>
+        <v>18.70901417889297</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.26828800158318</v>
+        <v>39.26828800158317</v>
       </c>
       <c r="L27" t="n">
         <v>119.7571625941459</v>
@@ -36726,28 +36726,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.30366340131451</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>67.73793381557189</v>
+        <v>67.73793381557192</v>
       </c>
       <c r="E28" t="n">
-        <v>71.24444285405761</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>13.99715597175898</v>
+        <v>44.22459337795875</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>48.21149110781743</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -36759,7 +36759,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>124.5321599569895</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -36847,7 +36847,7 @@
         <v>249.2839220505201</v>
       </c>
       <c r="P29" t="n">
-        <v>199.3623440479436</v>
+        <v>199.3623440479435</v>
       </c>
       <c r="Q29" t="n">
         <v>124.3606161369054</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>39.26828800158318</v>
+        <v>39.26828800158317</v>
       </c>
       <c r="L30" t="n">
         <v>119.7571625941459</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>48.04101730020899</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>188.4536698503113</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -37005,10 +37005,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>150.3904742856525</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.10421286486769</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0441979461646</v>
+        <v>137.0441979461647</v>
       </c>
       <c r="K32" t="n">
         <v>207.550101296444</v>
       </c>
       <c r="L32" t="n">
-        <v>261.79647219882</v>
+        <v>261.7964721988196</v>
       </c>
       <c r="M32" t="n">
         <v>296.4720630341242</v>
       </c>
       <c r="N32" t="n">
-        <v>290.9124617818881</v>
+        <v>290.9124617818882</v>
       </c>
       <c r="O32" t="n">
         <v>249.2839220505201</v>
       </c>
       <c r="P32" t="n">
-        <v>199.3623440479435</v>
+        <v>199.3623440479436</v>
       </c>
       <c r="Q32" t="n">
         <v>124.3606161369054</v>
       </c>
       <c r="R32" t="n">
-        <v>18.70901417889295</v>
+        <v>18.70901417889298</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>39.26828800158318</v>
+        <v>39.26828800158319</v>
       </c>
       <c r="L33" t="n">
         <v>119.7571625941459</v>
@@ -37163,7 +37163,7 @@
         <v>134.3890022971983</v>
       </c>
       <c r="P33" t="n">
-        <v>85.55952557398587</v>
+        <v>85.55952557398588</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37206,19 +37206,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>33.20377932798148</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>73.99370184783598</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>44.22459337795875</v>
       </c>
       <c r="H34" t="n">
-        <v>47.13872264411024</v>
+        <v>22.46643937424366</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>146.4464454928146</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -37245,10 +37245,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.10421286486769</v>
       </c>
       <c r="R34" t="n">
-        <v>9.705739685614132</v>
+        <v>9.705739685614164</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,25 +37300,25 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.712628651176683</v>
+        <v>7.71262865117663</v>
       </c>
       <c r="J35" t="n">
-        <v>172.4348246688263</v>
+        <v>172.4348246688262</v>
       </c>
       <c r="K35" t="n">
-        <v>242.9407280191056</v>
+        <v>115.2719349161387</v>
       </c>
       <c r="L35" t="n">
-        <v>48.87588813253701</v>
+        <v>48.87588813253703</v>
       </c>
       <c r="M35" t="n">
-        <v>328.2164562649702</v>
+        <v>83.55147896784158</v>
       </c>
       <c r="N35" t="n">
-        <v>223.3177883904332</v>
+        <v>326.3030885045497</v>
       </c>
       <c r="O35" t="n">
-        <v>36.36333798423748</v>
+        <v>284.6745487731816</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37327,13 +37327,13 @@
         <v>159.751242859567</v>
       </c>
       <c r="R35" t="n">
-        <v>54.09964090155455</v>
+        <v>54.09964090155451</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>21.03725949703596</v>
       </c>
       <c r="T35" t="n">
-        <v>25.89201822727213</v>
+        <v>25.89201822727208</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>39.26828800158318</v>
+        <v>39.26828800158319</v>
       </c>
       <c r="L36" t="n">
         <v>119.7571625941459</v>
@@ -37400,7 +37400,7 @@
         <v>134.3890022971983</v>
       </c>
       <c r="P36" t="n">
-        <v>85.55952557398587</v>
+        <v>85.55952557398588</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37443,7 +37443,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>71.05996741434107</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>84.01651007196313</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -37488,7 +37488,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>12.95654265762195</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>7.712628651176683</v>
+        <v>7.71262865117663</v>
       </c>
       <c r="J38" t="n">
-        <v>172.4348246688263</v>
+        <v>172.4348246688262</v>
       </c>
       <c r="K38" t="n">
-        <v>242.9407280191056</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>183.0765458368521</v>
+        <v>297.1870989214812</v>
       </c>
       <c r="M38" t="n">
-        <v>83.55147896784155</v>
+        <v>83.55147896784158</v>
       </c>
       <c r="N38" t="n">
-        <v>77.99187771560553</v>
+        <v>77.99187771560555</v>
       </c>
       <c r="O38" t="n">
-        <v>36.36333798423748</v>
+        <v>284.6745487731816</v>
       </c>
       <c r="P38" t="n">
-        <v>234.7529707706051</v>
+        <v>115.2719349161388</v>
       </c>
       <c r="Q38" t="n">
         <v>159.751242859567</v>
       </c>
       <c r="R38" t="n">
-        <v>54.09964090155455</v>
+        <v>54.09964090155451</v>
       </c>
       <c r="S38" t="n">
-        <v>21.03725949703602</v>
+        <v>21.03725949703596</v>
       </c>
       <c r="T38" t="n">
-        <v>25.89201822727213</v>
+        <v>25.89201822727208</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>39.26828800158318</v>
+        <v>39.26828800158319</v>
       </c>
       <c r="L39" t="n">
         <v>119.7571625941459</v>
@@ -37637,7 +37637,7 @@
         <v>134.3890022971983</v>
       </c>
       <c r="P39" t="n">
-        <v>85.55952557398587</v>
+        <v>85.55952557398588</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37683,7 +37683,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>26.45481671648578</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>84.01651007196303</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37740,10 +37740,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>26.39175538070162</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>31.16993797477573</v>
       </c>
     </row>
     <row r="41">
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>125.8960479077192</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>235.2280993679289</v>
+        <v>209.085533067258</v>
       </c>
       <c r="L41" t="n">
-        <v>289.4744702703045</v>
+        <v>48.87588813253703</v>
       </c>
       <c r="M41" t="n">
-        <v>83.55147896784155</v>
+        <v>83.55147896784158</v>
       </c>
       <c r="N41" t="n">
-        <v>77.99187771560553</v>
+        <v>318.590459853373</v>
       </c>
       <c r="O41" t="n">
         <v>276.961920122005</v>
@@ -37798,13 +37798,13 @@
         <v>227.0403421194284</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>152.0386142083903</v>
       </c>
       <c r="R41" t="n">
-        <v>46.38701225037784</v>
+        <v>46.38701225037785</v>
       </c>
       <c r="S41" t="n">
-        <v>13.3246308458593</v>
+        <v>13.32463084585931</v>
       </c>
       <c r="T41" t="n">
         <v>18.17938957609542</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>39.26828800158318</v>
+        <v>39.26828800158319</v>
       </c>
       <c r="L42" t="n">
         <v>119.7571625941459</v>
@@ -37874,7 +37874,7 @@
         <v>134.3890022971983</v>
       </c>
       <c r="P42" t="n">
-        <v>85.55952557398587</v>
+        <v>85.55952557398588</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37917,7 +37917,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>95.41593188705679</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>104.3569756867328</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -37962,10 +37962,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>5.24391400644523</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>3.697129793230769</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -38014,34 +38014,34 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>164.7221960176495</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>235.2280993679289</v>
+        <v>209.0855330672578</v>
       </c>
       <c r="L44" t="n">
-        <v>289.4744702703045</v>
+        <v>48.87588813253709</v>
       </c>
       <c r="M44" t="n">
-        <v>83.55147896784155</v>
+        <v>83.55147896784162</v>
       </c>
       <c r="N44" t="n">
-        <v>318.590459853373</v>
+        <v>318.5904598533731</v>
       </c>
       <c r="O44" t="n">
-        <v>36.36333798423748</v>
+        <v>276.961920122005</v>
       </c>
       <c r="P44" t="n">
-        <v>36.17557980110798</v>
+        <v>227.0403421194285</v>
       </c>
       <c r="Q44" t="n">
-        <v>152.0386142083903</v>
+        <v>152.0386142083904</v>
       </c>
       <c r="R44" t="n">
-        <v>46.38701225037784</v>
+        <v>46.38701225037786</v>
       </c>
       <c r="S44" t="n">
-        <v>13.3246308458593</v>
+        <v>13.32463084585931</v>
       </c>
       <c r="T44" t="n">
         <v>18.17938957609542</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.26828800158318</v>
+        <v>39.26828800158322</v>
       </c>
       <c r="L45" t="n">
-        <v>119.7571625941459</v>
+        <v>119.757162594146</v>
       </c>
       <c r="M45" t="n">
-        <v>184.9576916997117</v>
+        <v>184.9576916997118</v>
       </c>
       <c r="N45" t="n">
-        <v>208.458920497669</v>
+        <v>208.4589204976691</v>
       </c>
       <c r="O45" t="n">
         <v>134.3890022971983</v>
       </c>
       <c r="P45" t="n">
-        <v>85.55952557398587</v>
+        <v>85.55952557398591</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38163,16 +38163,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>71.90259144944362</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>15.59691880212251</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>104.3569756867328</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -38202,7 +38202,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>16.85746543516666</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
